--- a/source_analyses/nl/2019/1_chp/1_chp_source_analysis.xlsx
+++ b/source_analyses/nl/2019/1_chp/1_chp_source_analysis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alexander/Git/etdataset/source_analyses/nl/2019/1_chp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7DA653-43AB-CA43-8BC9-745AF715643E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65AB38E-EDD2-1B49-9B3C-11000A242542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14020" yWindow="-42700" windowWidth="38400" windowHeight="42700" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
     Including steam turbines (not coal)</t>
       </text>
     </comment>
-    <comment ref="D46" authorId="2" shapeId="0" xr:uid="{61A30F39-2C1F-F149-93D0-E2832A32A067}">
+    <comment ref="D47" authorId="2" shapeId="0" xr:uid="{61A30F39-2C1F-F149-93D0-E2832A32A067}">
       <text>
         <r>
           <rPr>
@@ -195,13 +195,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="E46" authorId="2" shapeId="0" xr:uid="{F17E2A61-6533-CA46-B195-1B5FB315DA2D}">
+    <comment ref="E47" authorId="2" shapeId="0" xr:uid="{F17E2A61-6533-CA46-B195-1B5FB315DA2D}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
@@ -210,17 +210,36 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Including 'other fuels for food industry even though that is most likely biogas
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Including 'other fuels for food industry even though that is most likely biogas
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="D56" authorId="2" shapeId="0" xr:uid="{18BB1026-D8D6-2746-94F2-017B39F73BFA}">
+    <comment ref="D58" authorId="2" shapeId="0" xr:uid="{18BB1026-D8D6-2746-94F2-017B39F73BFA}">
       <text>
         <r>
           <rPr>
@@ -274,7 +293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E56" authorId="2" shapeId="0" xr:uid="{B409A392-D408-5340-8324-558CB6E7F57C}">
+    <comment ref="E58" authorId="2" shapeId="0" xr:uid="{B409A392-D408-5340-8324-558CB6E7F57C}">
       <text>
         <r>
           <rPr>
@@ -317,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E59" authorId="2" shapeId="0" xr:uid="{79EFD63E-BDE5-6441-8F2D-39CB0404AABF}">
+    <comment ref="E61" authorId="2" shapeId="0" xr:uid="{79EFD63E-BDE5-6441-8F2D-39CB0404AABF}">
       <text>
         <r>
           <rPr>
@@ -351,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D70" authorId="3" shapeId="0" xr:uid="{1949B302-ADA1-384D-93D5-79D0DA6D1A50}">
+    <comment ref="D72" authorId="3" shapeId="0" xr:uid="{1949B302-ADA1-384D-93D5-79D0DA6D1A50}">
       <text>
         <t xml:space="preserve">[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -365,7 +384,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1954" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1958" uniqueCount="423">
   <si>
     <t/>
   </si>
@@ -1757,6 +1776,9 @@
   <si>
     <t>Installed heat capacity (MW)</t>
   </si>
+  <si>
+    <t>Coal gas CHP</t>
+  </si>
 </sst>
 </file>
 
@@ -1770,7 +1792,7 @@
     <numFmt numFmtId="168" formatCode="0.0"/>
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="45" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1999,19 +2021,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -2750,10 +2759,10 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="40" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="339">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3014,19 +3023,19 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="13" fillId="2" borderId="0" xfId="5" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="5" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="39" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="37" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="42" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="42" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="40" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3118,7 +3127,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3157,73 +3166,73 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="30" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="44" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="30" fillId="13" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="44" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="30" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="30" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="44" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="30" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="44" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="42" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="30" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="42" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3279,6 +3288,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="119" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="13" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="120">
     <cellStyle name="Bad" xfId="118" builtinId="27"/>
@@ -4195,7 +4206,7 @@
   <threadedComment ref="E44" dT="2021-05-05T15:10:00.09" personId="{140179EF-A2A7-854B-AD7B-B9248ED29324}" id="{06DB6454-79DA-544E-A03A-F6830B263DE7}">
     <text>Including steam turbines (not coal)</text>
   </threadedComment>
-  <threadedComment ref="D70" dT="2021-05-07T15:45:54.09" personId="{140179EF-A2A7-854B-AD7B-B9248ED29324}" id="{1949B302-ADA1-384D-93D5-79D0DA6D1A50}">
+  <threadedComment ref="D72" dT="2021-05-07T15:45:54.09" personId="{140179EF-A2A7-854B-AD7B-B9248ED29324}" id="{1949B302-ADA1-384D-93D5-79D0DA6D1A50}">
     <text xml:space="preserve">from Eurostat Energy balance (see CHP analysis Results by fuel tab)
 </text>
   </threadedComment>
@@ -5990,7 +6001,7 @@
   <dimension ref="A1:O394"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
@@ -18793,16 +18804,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946366F1-2AF6-3E4A-AAB7-162A5F0D1FEF}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:O403"/>
   <sheetViews>
     <sheetView zoomScale="159" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="4" topLeftCell="D63" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J51" sqref="J51"/>
+      <selection pane="bottomRight" activeCell="G236" sqref="G236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -18903,7 +18914,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
@@ -18947,7 +18958,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A5</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -19009,7 +19020,7 @@
         <v>16878.668055555554</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A6</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -19195,7 +19206,7 @@
         <v>6512.4930555555557</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A9</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -19257,7 +19268,7 @@
         <v>3215.1466666666665</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A10</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -19319,7 +19330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A11</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -19381,7 +19392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A12</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -19443,7 +19454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A13</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -19505,7 +19516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A14</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -19567,7 +19578,7 @@
         <v>16.166666666666668</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A15</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -19629,7 +19640,7 @@
         <v>16878.668055555554</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A16</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -19815,7 +19826,7 @@
         <v>6512.4930555555557</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A19</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -19877,7 +19888,7 @@
         <v>3215.1466666666665</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A20</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -19939,7 +19950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A21</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -20001,7 +20012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A22</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -20063,7 +20074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A23</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -20125,7 +20136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A24</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -20187,7 +20198,7 @@
         <v>16.166666666666668</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A25</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -20249,7 +20260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A26</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -20435,7 +20446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A29</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -20497,7 +20508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A30</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -20559,7 +20570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A31</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -20621,7 +20632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A32</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -20683,7 +20694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A33</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -20745,7 +20756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A34</f>
         <v>Totaal centrale/decentrale productie</v>
@@ -20807,7 +20818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A35</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -20869,7 +20880,7 @@
         <v>3090.2402777777779</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A36</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -20993,7 +21004,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="166" t="s">
         <v>267</v>
       </c>
@@ -21038,7 +21049,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="166" t="s">
         <v>267</v>
       </c>
@@ -21073,7 +21084,7 @@
       <c r="N39" s="167"/>
       <c r="O39" s="169"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="166" t="s">
         <v>267</v>
       </c>
@@ -21167,7 +21178,7 @@
         <v>2070.4625000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A39</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -21229,7 +21240,7 @@
         <v>506.77777777777777</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A40</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -21291,7 +21302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A41</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -21353,7 +21364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A42</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -21415,7 +21426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A43</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -21477,7 +21488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A44</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -21539,7 +21550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A45</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -21601,7 +21612,7 @@
         <v>3090.2402777777779</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A46</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -21725,7 +21736,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="166" t="s">
         <v>267</v>
       </c>
@@ -21761,7 +21772,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="166" t="s">
         <v>267</v>
       </c>
@@ -21796,7 +21807,7 @@
       <c r="N52" s="167"/>
       <c r="O52" s="169"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="166" t="s">
         <v>267</v>
       </c>
@@ -21890,7 +21901,7 @@
         <v>2070.4625000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A49</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -21952,7 +21963,7 @@
         <v>506.77777777777777</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A50</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -22014,7 +22025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A51</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -22076,7 +22087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A52</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -22138,7 +22149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A53</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -22200,7 +22211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A54</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -22262,7 +22273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A55</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -22324,7 +22335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A56</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -22448,7 +22459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="166" t="s">
         <v>267</v>
       </c>
@@ -22482,7 +22493,7 @@
       <c r="N64" s="168"/>
       <c r="O64" s="169"/>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="166" t="s">
         <v>267</v>
       </c>
@@ -22517,7 +22528,7 @@
       <c r="N65" s="167"/>
       <c r="O65" s="169"/>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="166" t="s">
         <v>267</v>
       </c>
@@ -22611,7 +22622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A59</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -22673,7 +22684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A60</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -22735,7 +22746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A61</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -22797,7 +22808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A62</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -22859,7 +22870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A63</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -22921,7 +22932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A64</f>
         <v>Centrale elektriciteitsproductie</v>
@@ -22983,7 +22994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A65</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -23045,7 +23056,7 @@
         <v>13788.427777777777</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A66</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -23231,7 +23242,7 @@
         <v>4442.0305555555551</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A69</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -23293,7 +23304,7 @@
         <v>2708.3688888888887</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A70</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -23355,7 +23366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A71</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -23417,7 +23428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A72</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -23479,7 +23490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A73</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -23541,7 +23552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A74</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -23603,7 +23614,7 @@
         <v>16.166666666666668</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A75</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -23665,7 +23676,7 @@
         <v>13788.427777777777</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A76</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -23851,7 +23862,7 @@
         <v>4442.0305555555551</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A79</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -23913,7 +23924,7 @@
         <v>2708.3688888888887</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A80</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -23975,7 +23986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A81</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -24037,7 +24048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A82</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -24099,7 +24110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A83</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -24161,7 +24172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A84</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -24223,7 +24234,7 @@
         <v>16.166666666666668</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A85</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -24285,7 +24296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A86</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -24471,7 +24482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A89</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -24533,7 +24544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A90</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -24595,7 +24606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A91</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -24657,7 +24668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A92</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -24719,7 +24730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A93</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -24781,7 +24792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A94</f>
         <v>Decentrale elektriciteitsproductie</v>
@@ -24843,7 +24854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A95</f>
         <v>Land- en tuinbouw</v>
@@ -24905,7 +24916,7 @@
         <v>3621.1030555555553</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A96</f>
         <v>Land- en tuinbouw</v>
@@ -25091,7 +25102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A99</f>
         <v>Land- en tuinbouw</v>
@@ -25153,7 +25164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A100</f>
         <v>Land- en tuinbouw</v>
@@ -25215,7 +25226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A101</f>
         <v>Land- en tuinbouw</v>
@@ -25277,7 +25288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A102</f>
         <v>Land- en tuinbouw</v>
@@ -25339,7 +25350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A103</f>
         <v>Land- en tuinbouw</v>
@@ -25401,7 +25412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A104</f>
         <v>Land- en tuinbouw</v>
@@ -25463,7 +25474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A105</f>
         <v>Land- en tuinbouw</v>
@@ -25525,7 +25536,7 @@
         <v>3621.1030555555553</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A106</f>
         <v>Land- en tuinbouw</v>
@@ -25711,7 +25722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A109</f>
         <v>Land- en tuinbouw</v>
@@ -25773,7 +25784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A110</f>
         <v>Land- en tuinbouw</v>
@@ -25835,7 +25846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A111</f>
         <v>Land- en tuinbouw</v>
@@ -25897,7 +25908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A112</f>
         <v>Land- en tuinbouw</v>
@@ -25959,7 +25970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A113</f>
         <v>Land- en tuinbouw</v>
@@ -26021,7 +26032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A114</f>
         <v>Land- en tuinbouw</v>
@@ -26083,7 +26094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A115</f>
         <v>Land- en tuinbouw</v>
@@ -26145,7 +26156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A116</f>
         <v>Land- en tuinbouw</v>
@@ -26331,7 +26342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A119</f>
         <v>Land- en tuinbouw</v>
@@ -26393,7 +26404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A120</f>
         <v>Land- en tuinbouw</v>
@@ -26455,7 +26466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A121</f>
         <v>Land- en tuinbouw</v>
@@ -26517,7 +26528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A122</f>
         <v>Land- en tuinbouw</v>
@@ -26579,7 +26590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A123</f>
         <v>Land- en tuinbouw</v>
@@ -26641,7 +26652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A124</f>
         <v>Land- en tuinbouw</v>
@@ -26703,7 +26714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A125</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -26765,7 +26776,7 @@
         <v>1103.838888888889</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A126</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -26951,7 +26962,7 @@
         <v>344.2</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A129</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -27013,7 +27024,7 @@
         <v>759.63888888888891</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A130</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -27075,7 +27086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A131</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -27137,7 +27148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A132</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -27199,7 +27210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A133</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -27261,7 +27272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A134</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -27323,7 +27334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A135</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -27385,7 +27396,7 @@
         <v>1103.838888888889</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A136</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -27571,7 +27582,7 @@
         <v>344.2</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A139</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -27633,7 +27644,7 @@
         <v>759.63888888888891</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A140</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -27695,7 +27706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A141</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -27757,7 +27768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A142</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -27819,7 +27830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A143</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -27881,7 +27892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A144</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -27943,7 +27954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A145</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -28005,7 +28016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A146</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -28191,7 +28202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A149</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -28253,7 +28264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A150</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -28315,7 +28326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A151</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -28377,7 +28388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A152</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -28439,7 +28450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A153</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -28501,7 +28512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A154</f>
         <v>Raffinaderijen en winningsbedrijven</v>
@@ -28563,7 +28574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A155</f>
         <v>Voedings- en genotmiddelen</v>
@@ -28625,7 +28636,7 @@
         <v>1133.7111111111112</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A156</f>
         <v>Voedings- en genotmiddelen</v>
@@ -28811,7 +28822,7 @@
         <v>262.17638888888888</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A159</f>
         <v>Voedings- en genotmiddelen</v>
@@ -28873,7 +28884,7 @@
         <v>556.89222222222224</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A160</f>
         <v>Voedings- en genotmiddelen</v>
@@ -28935,7 +28946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A161</f>
         <v>Voedings- en genotmiddelen</v>
@@ -28997,7 +29008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A162</f>
         <v>Voedings- en genotmiddelen</v>
@@ -29059,7 +29070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A163</f>
         <v>Voedings- en genotmiddelen</v>
@@ -29121,7 +29132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A164</f>
         <v>Voedings- en genotmiddelen</v>
@@ -29183,7 +29194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A165</f>
         <v>Voedings- en genotmiddelen</v>
@@ -29245,7 +29256,7 @@
         <v>1133.7111111111112</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A166</f>
         <v>Voedings- en genotmiddelen</v>
@@ -29431,7 +29442,7 @@
         <v>262.17638888888888</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A169</f>
         <v>Voedings- en genotmiddelen</v>
@@ -29493,7 +29504,7 @@
         <v>556.89222222222224</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A170</f>
         <v>Voedings- en genotmiddelen</v>
@@ -29555,7 +29566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A171</f>
         <v>Voedings- en genotmiddelen</v>
@@ -29617,7 +29628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A172</f>
         <v>Voedings- en genotmiddelen</v>
@@ -29679,7 +29690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A173</f>
         <v>Voedings- en genotmiddelen</v>
@@ -29741,7 +29752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A174</f>
         <v>Voedings- en genotmiddelen</v>
@@ -29803,7 +29814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A175</f>
         <v>Voedings- en genotmiddelen</v>
@@ -29865,7 +29876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A176</f>
         <v>Voedings- en genotmiddelen</v>
@@ -30051,7 +30062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A179</f>
         <v>Voedings- en genotmiddelen</v>
@@ -30113,7 +30124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A180</f>
         <v>Voedings- en genotmiddelen</v>
@@ -30175,7 +30186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A181</f>
         <v>Voedings- en genotmiddelen</v>
@@ -30237,7 +30248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A182</f>
         <v>Voedings- en genotmiddelen</v>
@@ -30299,7 +30310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A183</f>
         <v>Voedings- en genotmiddelen</v>
@@ -30361,7 +30372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A184</f>
         <v>Voedings- en genotmiddelen</v>
@@ -30423,7 +30434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A185</f>
         <v>Papier</v>
@@ -30485,7 +30496,7 @@
         <v>643.54666666666662</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A186</f>
         <v>Papier</v>
@@ -30671,7 +30682,7 @@
         <v>410.185</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A189</f>
         <v>Papier</v>
@@ -30733,7 +30744,7 @@
         <v>233.36166666666668</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A190</f>
         <v>Papier</v>
@@ -30795,7 +30806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A191</f>
         <v>Papier</v>
@@ -30857,7 +30868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A192</f>
         <v>Papier</v>
@@ -30919,7 +30930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A193</f>
         <v>Papier</v>
@@ -30981,7 +30992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A194</f>
         <v>Papier</v>
@@ -31043,7 +31054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A195</f>
         <v>Papier</v>
@@ -31105,7 +31116,7 @@
         <v>643.54666666666662</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A196</f>
         <v>Papier</v>
@@ -31291,7 +31302,7 @@
         <v>410.185</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A199</f>
         <v>Papier</v>
@@ -31353,7 +31364,7 @@
         <v>233.36166666666668</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A200</f>
         <v>Papier</v>
@@ -31415,7 +31426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A201</f>
         <v>Papier</v>
@@ -31477,7 +31488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A202</f>
         <v>Papier</v>
@@ -31539,7 +31550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A203</f>
         <v>Papier</v>
@@ -31601,7 +31612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A204</f>
         <v>Papier</v>
@@ -31663,7 +31674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A205</f>
         <v>Papier</v>
@@ -31725,7 +31736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A206</f>
         <v>Papier</v>
@@ -31911,7 +31922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A209</f>
         <v>Papier</v>
@@ -31973,7 +31984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A210</f>
         <v>Papier</v>
@@ -32035,7 +32046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A211</f>
         <v>Papier</v>
@@ -32097,7 +32108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A212</f>
         <v>Papier</v>
@@ -32159,7 +32170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A213</f>
         <v>Papier</v>
@@ -32221,7 +32232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A214</f>
         <v>Papier</v>
@@ -32283,7 +32294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A215</f>
         <v>Chemie</v>
@@ -32345,7 +32356,7 @@
         <v>4804.8452777777775</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A216</f>
         <v>Chemie</v>
@@ -32531,7 +32542,7 @@
         <v>3071.0802777777776</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A219</f>
         <v>Chemie</v>
@@ -32593,7 +32604,7 @@
         <v>1065.3205555555555</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A220</f>
         <v>Chemie</v>
@@ -32655,7 +32666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A221</f>
         <v>Chemie</v>
@@ -32717,7 +32728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A222</f>
         <v>Chemie</v>
@@ -32779,7 +32790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A223</f>
         <v>Chemie</v>
@@ -32841,7 +32852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A224</f>
         <v>Chemie</v>
@@ -32903,7 +32914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A225</f>
         <v>Chemie</v>
@@ -32965,7 +32976,7 @@
         <v>4804.8452777777775</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A226</f>
         <v>Chemie</v>
@@ -33151,7 +33162,7 @@
         <v>3071.0802777777776</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A229</f>
         <v>Chemie</v>
@@ -33213,7 +33224,7 @@
         <v>1065.3205555555555</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A230</f>
         <v>Chemie</v>
@@ -33275,7 +33286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A231</f>
         <v>Chemie</v>
@@ -33337,7 +33348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A232</f>
         <v>Chemie</v>
@@ -33399,7 +33410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A233</f>
         <v>Chemie</v>
@@ -33461,7 +33472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A234</f>
         <v>Chemie</v>
@@ -33523,7 +33534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A235</f>
         <v>Chemie</v>
@@ -33585,7 +33596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A236</f>
         <v>Chemie</v>
@@ -33771,7 +33782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A239</f>
         <v>Chemie</v>
@@ -33833,7 +33844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A240</f>
         <v>Chemie</v>
@@ -33895,7 +33906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A241</f>
         <v>Chemie</v>
@@ -33957,7 +33968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A242</f>
         <v>Chemie</v>
@@ -34019,7 +34030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A243</f>
         <v>Chemie</v>
@@ -34081,7 +34092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A244</f>
         <v>Chemie</v>
@@ -34143,7 +34154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A245</f>
         <v>Overige industrie</v>
@@ -34205,7 +34216,7 @@
         <v>594.5963888888889</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A246</f>
         <v>Overige industrie</v>
@@ -34391,7 +34402,7 @@
         <v>273.61111111111109</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A249</f>
         <v>Overige industrie</v>
@@ -34453,7 +34464,7 @@
         <v>82.855555555555554</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A250</f>
         <v>Overige industrie</v>
@@ -34515,7 +34526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A251</f>
         <v>Overige industrie</v>
@@ -34577,7 +34588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A252</f>
         <v>Overige industrie</v>
@@ -34639,7 +34650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A253</f>
         <v>Overige industrie</v>
@@ -34701,7 +34712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A254</f>
         <v>Overige industrie</v>
@@ -34763,7 +34774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A255</f>
         <v>Overige industrie</v>
@@ -34825,7 +34836,7 @@
         <v>594.5963888888889</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A256</f>
         <v>Overige industrie</v>
@@ -35011,7 +35022,7 @@
         <v>273.61111111111109</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A259</f>
         <v>Overige industrie</v>
@@ -35073,7 +35084,7 @@
         <v>82.855555555555554</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A260</f>
         <v>Overige industrie</v>
@@ -35135,7 +35146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A261</f>
         <v>Overige industrie</v>
@@ -35197,7 +35208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A262</f>
         <v>Overige industrie</v>
@@ -35259,7 +35270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A263</f>
         <v>Overige industrie</v>
@@ -35321,7 +35332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A264</f>
         <v>Overige industrie</v>
@@ -35383,7 +35394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A265</f>
         <v>Overige industrie</v>
@@ -35445,7 +35456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A266</f>
         <v>Overige industrie</v>
@@ -35631,7 +35642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A269</f>
         <v>Overige industrie</v>
@@ -35693,7 +35704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A270</f>
         <v>Overige industrie</v>
@@ -35755,7 +35766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A271</f>
         <v>Overige industrie</v>
@@ -35817,7 +35828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A272</f>
         <v>Overige industrie</v>
@@ -35879,7 +35890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A273</f>
         <v>Overige industrie</v>
@@ -35941,7 +35952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A274</f>
         <v>Overige industrie</v>
@@ -36003,7 +36014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A275</f>
         <v>Distributiebedrijven</v>
@@ -36065,7 +36076,7 @@
         <v>481.51305555555558</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A276</f>
         <v>Distributiebedrijven</v>
@@ -36251,7 +36262,7 @@
         <v>73.833333333333329</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A279</f>
         <v>Distributiebedrijven</v>
@@ -36313,7 +36324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A280</f>
         <v>Distributiebedrijven</v>
@@ -36375,7 +36386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A281</f>
         <v>Distributiebedrijven</v>
@@ -36437,7 +36448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A282</f>
         <v>Distributiebedrijven</v>
@@ -36499,7 +36510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A283</f>
         <v>Distributiebedrijven</v>
@@ -36561,7 +36572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A284</f>
         <v>Distributiebedrijven</v>
@@ -36623,7 +36634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A285</f>
         <v>Distributiebedrijven</v>
@@ -36685,7 +36696,7 @@
         <v>481.51305555555558</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A286</f>
         <v>Distributiebedrijven</v>
@@ -36871,7 +36882,7 @@
         <v>73.833333333333329</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A289</f>
         <v>Distributiebedrijven</v>
@@ -36933,7 +36944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A290</f>
         <v>Distributiebedrijven</v>
@@ -36995,7 +37006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A291</f>
         <v>Distributiebedrijven</v>
@@ -37057,7 +37068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A292</f>
         <v>Distributiebedrijven</v>
@@ -37119,7 +37130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A293</f>
         <v>Distributiebedrijven</v>
@@ -37181,7 +37192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A294</f>
         <v>Distributiebedrijven</v>
@@ -37243,7 +37254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A295</f>
         <v>Distributiebedrijven</v>
@@ -37305,7 +37316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A296</f>
         <v>Distributiebedrijven</v>
@@ -37491,7 +37502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A299</f>
         <v>Distributiebedrijven</v>
@@ -37553,7 +37564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A300</f>
         <v>Distributiebedrijven</v>
@@ -37615,7 +37626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A301</f>
         <v>Distributiebedrijven</v>
@@ -37677,7 +37688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A302</f>
         <v>Distributiebedrijven</v>
@@ -37739,7 +37750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A303</f>
         <v>Distributiebedrijven</v>
@@ -37801,7 +37812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A304</f>
         <v>Distributiebedrijven</v>
@@ -37863,7 +37874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A305</f>
         <v>Gezondheidszorg</v>
@@ -37925,7 +37936,7 @@
         <v>55.491666666666667</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A306</f>
         <v>Gezondheidszorg</v>
@@ -38111,7 +38122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A309</f>
         <v>Gezondheidszorg</v>
@@ -38173,7 +38184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A310</f>
         <v>Gezondheidszorg</v>
@@ -38235,7 +38246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A311</f>
         <v>Gezondheidszorg</v>
@@ -38297,7 +38308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A312</f>
         <v>Gezondheidszorg</v>
@@ -38359,7 +38370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A313</f>
         <v>Gezondheidszorg</v>
@@ -38421,7 +38432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A314</f>
         <v>Gezondheidszorg</v>
@@ -38483,7 +38494,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A315</f>
         <v>Gezondheidszorg</v>
@@ -38545,7 +38556,7 @@
         <v>55.491666666666667</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A316</f>
         <v>Gezondheidszorg</v>
@@ -38731,7 +38742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A319</f>
         <v>Gezondheidszorg</v>
@@ -38793,7 +38804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A320</f>
         <v>Gezondheidszorg</v>
@@ -38855,7 +38866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A321</f>
         <v>Gezondheidszorg</v>
@@ -38917,7 +38928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A322</f>
         <v>Gezondheidszorg</v>
@@ -38979,7 +38990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A323</f>
         <v>Gezondheidszorg</v>
@@ -39041,7 +39052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A324</f>
         <v>Gezondheidszorg</v>
@@ -39103,7 +39114,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A325</f>
         <v>Gezondheidszorg</v>
@@ -39165,7 +39176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A326</f>
         <v>Gezondheidszorg</v>
@@ -39351,7 +39362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A329</f>
         <v>Gezondheidszorg</v>
@@ -39413,7 +39424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A330</f>
         <v>Gezondheidszorg</v>
@@ -39475,7 +39486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A331</f>
         <v>Gezondheidszorg</v>
@@ -39537,7 +39548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A332</f>
         <v>Gezondheidszorg</v>
@@ -39599,7 +39610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A333</f>
         <v>Gezondheidszorg</v>
@@ -39661,7 +39672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A334</f>
         <v>Gezondheidszorg</v>
@@ -39723,7 +39734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A335</f>
         <v>Afvalverbranding</v>
@@ -39785,7 +39796,7 @@
         <v>1227.9558333333334</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A336</f>
         <v>Afvalverbranding</v>
@@ -39971,7 +39982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A339</f>
         <v>Afvalverbranding</v>
@@ -40033,7 +40044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A340</f>
         <v>Afvalverbranding</v>
@@ -40095,7 +40106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A341</f>
         <v>Afvalverbranding</v>
@@ -40157,7 +40168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A342</f>
         <v>Afvalverbranding</v>
@@ -40219,7 +40230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A343</f>
         <v>Afvalverbranding</v>
@@ -40281,7 +40292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A344</f>
         <v>Afvalverbranding</v>
@@ -40343,7 +40354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A345</f>
         <v>Afvalverbranding</v>
@@ -40405,7 +40416,7 @@
         <v>1227.9558333333334</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A346</f>
         <v>Afvalverbranding</v>
@@ -40591,7 +40602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A349</f>
         <v>Afvalverbranding</v>
@@ -40653,7 +40664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A350</f>
         <v>Afvalverbranding</v>
@@ -40715,7 +40726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A351</f>
         <v>Afvalverbranding</v>
@@ -40777,7 +40788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A352</f>
         <v>Afvalverbranding</v>
@@ -40839,7 +40850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A353</f>
         <v>Afvalverbranding</v>
@@ -40901,7 +40912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A354</f>
         <v>Afvalverbranding</v>
@@ -40963,7 +40974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A355</f>
         <v>Afvalverbranding</v>
@@ -41025,7 +41036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A356</f>
         <v>Afvalverbranding</v>
@@ -41211,7 +41222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A359</f>
         <v>Afvalverbranding</v>
@@ -41273,7 +41284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A360</f>
         <v>Afvalverbranding</v>
@@ -41335,7 +41346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A361</f>
         <v>Afvalverbranding</v>
@@ -41397,7 +41408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A362</f>
         <v>Afvalverbranding</v>
@@ -41459,7 +41470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A363</f>
         <v>Afvalverbranding</v>
@@ -41521,7 +41532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A364</f>
         <v>Afvalverbranding</v>
@@ -41583,7 +41594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A365</f>
         <v>Overige producenten</v>
@@ -41645,7 +41656,7 @@
         <v>121.82583333333334</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A366</f>
         <v>Overige producenten</v>
@@ -41831,7 +41842,7 @@
         <v>6.9444444444444446</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A369</f>
         <v>Overige producenten</v>
@@ -41893,7 +41904,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A370</f>
         <v>Overige producenten</v>
@@ -41955,7 +41966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A371</f>
         <v>Overige producenten</v>
@@ -42017,7 +42028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A372</f>
         <v>Overige producenten</v>
@@ -42079,7 +42090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A373</f>
         <v>Overige producenten</v>
@@ -42141,7 +42152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A374</f>
         <v>Overige producenten</v>
@@ -42203,7 +42214,7 @@
         <v>12.166666666666666</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A375</f>
         <v>Overige producenten</v>
@@ -42265,7 +42276,7 @@
         <v>121.82583333333334</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A376</f>
         <v>Overige producenten</v>
@@ -42451,7 +42462,7 @@
         <v>6.9444444444444446</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A379</f>
         <v>Overige producenten</v>
@@ -42513,7 +42524,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A380</f>
         <v>Overige producenten</v>
@@ -42575,7 +42586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A381</f>
         <v>Overige producenten</v>
@@ -42637,7 +42648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A382</f>
         <v>Overige producenten</v>
@@ -42699,7 +42710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A383</f>
         <v>Overige producenten</v>
@@ -42761,7 +42772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A384</f>
         <v>Overige producenten</v>
@@ -42823,7 +42834,7 @@
         <v>12.166666666666666</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A385</f>
         <v>Overige producenten</v>
@@ -42885,7 +42896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A386</f>
         <v>Overige producenten</v>
@@ -43071,7 +43082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A389</f>
         <v>Overige producenten</v>
@@ -43133,7 +43144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A390</f>
         <v>Overige producenten</v>
@@ -43195,7 +43206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A391</f>
         <v>Overige producenten</v>
@@ -43257,7 +43268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A392</f>
         <v>Overige producenten</v>
@@ -43319,7 +43330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A393</f>
         <v>Overige producenten</v>
@@ -43381,7 +43392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="str">
         <f>'CBS data 2019 (voorlopig)'!A394</f>
         <v>Overige producenten</v>
@@ -43444,7 +43455,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:O403" xr:uid="{F1D32010-642A-E643-AECB-CEBCE2BA8966}"/>
+  <autoFilter ref="A3:O403" xr:uid="{F1D32010-642A-E643-AECB-CEBCE2BA8966}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Steg-eenheid"/>
+        <filter val="Stoomturbine"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="I2:K2"/>
@@ -43461,7 +43479,7 @@
   <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -44359,13 +44377,13 @@
   <sheetPr>
     <tabColor theme="5" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:Q131"/>
+  <dimension ref="A1:Q135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <pane xSplit="3" ySplit="9" topLeftCell="D72" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="9" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B92" sqref="B92:O131"/>
+      <selection pane="bottomRight" activeCell="A129" sqref="A129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -45434,7 +45452,7 @@
         <v>173</v>
       </c>
       <c r="D44" s="231">
-        <f>SUM('CBS data 2019 (edited)'!J177,'CBS data 2019 (edited)'!J207,'CBS data 2019 (edited)'!J237,'CBS data 2019 (edited)'!J267)+SUM('CBS data 2019 (edited)'!J176,'CBS data 2019 (edited)'!J206,'CBS data 2019 (edited)'!J236,'CBS data 2019 (edited)'!J266)*(1-$E$45/$E$46)</f>
+        <f>SUM('CBS data 2019 (edited)'!J177,'CBS data 2019 (edited)'!J207,'CBS data 2019 (edited)'!J237,'CBS data 2019 (edited)'!J267)+SUM('CBS data 2019 (edited)'!J176,'CBS data 2019 (edited)'!J206,'CBS data 2019 (edited)'!J236,'CBS data 2019 (edited)'!J266)*(1-$E$46/$E$47)</f>
         <v>28198</v>
       </c>
       <c r="E44" s="231">
@@ -45466,46 +45484,35 @@
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B45" s="26"/>
-      <c r="C45" s="230" t="s">
-        <v>170</v>
-      </c>
-      <c r="D45" s="231">
-        <f>SUM('CBS data 2019 (edited)'!J176,'CBS data 2019 (edited)'!J206,'CBS data 2019 (edited)'!J236,'CBS data 2019 (edited)'!J266)*E45/$E$46</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="231">
-        <f>SUM('CBS data 2019 (edited)'!G176,'CBS data 2019 (edited)'!G206,'CBS data 2019 (edited)'!G236,'CBS data 2019 (edited)'!G266)</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="231"/>
+      <c r="C45" s="337" t="s">
+        <v>422</v>
+      </c>
+      <c r="D45" s="231"/>
+      <c r="E45" s="231"/>
+      <c r="F45" s="149"/>
       <c r="G45" s="231"/>
       <c r="H45" s="231"/>
       <c r="I45" s="231"/>
       <c r="J45" s="231"/>
       <c r="L45" s="233"/>
       <c r="M45" s="234"/>
-      <c r="N45" s="235">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="O45" s="235">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="N45" s="235"/>
+      <c r="O45" s="235"/>
       <c r="P45" s="27"/>
+      <c r="Q45" s="156"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B46" s="26"/>
       <c r="C46" s="230" t="s">
-        <v>166</v>
-      </c>
-      <c r="D46" s="231">
-        <f>SUBTOTAL(9,D42:D45)</f>
-        <v>36556</v>
+        <v>170</v>
+      </c>
+      <c r="D46" s="338">
+        <f>SUM('CBS data 2019 (edited)'!J176,'CBS data 2019 (edited)'!J206,'CBS data 2019 (edited)'!J236,'CBS data 2019 (edited)'!J266)*E46/$E$47</f>
+        <v>0</v>
       </c>
       <c r="E46" s="231">
-        <f>SUBTOTAL(9,E42:E45)</f>
-        <v>125381</v>
+        <f>SUM('CBS data 2019 (edited)'!G176,'CBS data 2019 (edited)'!G206,'CBS data 2019 (edited)'!G236,'CBS data 2019 (edited)'!G266)</f>
+        <v>0</v>
       </c>
       <c r="F46" s="231"/>
       <c r="G46" s="231"/>
@@ -45514,350 +45521,324 @@
       <c r="J46" s="231"/>
       <c r="L46" s="233"/>
       <c r="M46" s="234"/>
-      <c r="N46" s="248"/>
-      <c r="O46" s="248"/>
+      <c r="N46" s="235">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="235">
+        <f>0</f>
+        <v>0</v>
+      </c>
       <c r="P46" s="27"/>
     </row>
-    <row r="47" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="43"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="45"/>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="45"/>
-      <c r="I47" s="45"/>
-      <c r="J47" s="45"/>
-      <c r="K47" s="46"/>
-      <c r="L47" s="253"/>
-      <c r="M47" s="254"/>
-      <c r="N47" s="255"/>
-      <c r="O47" s="255"/>
-      <c r="P47" s="47"/>
-    </row>
-    <row r="48" spans="2:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="32" t="s">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B47" s="26"/>
+      <c r="C47" s="230" t="s">
+        <v>166</v>
+      </c>
+      <c r="D47" s="231">
+        <f>SUBTOTAL(9,D42:D46)</f>
+        <v>36556</v>
+      </c>
+      <c r="E47" s="231">
+        <f>SUBTOTAL(9,E42:E46)</f>
+        <v>125381</v>
+      </c>
+      <c r="F47" s="231"/>
+      <c r="G47" s="231"/>
+      <c r="H47" s="231"/>
+      <c r="I47" s="231"/>
+      <c r="J47" s="231"/>
+      <c r="L47" s="233"/>
+      <c r="M47" s="234"/>
+      <c r="N47" s="248"/>
+      <c r="O47" s="248"/>
+      <c r="P47" s="27"/>
+    </row>
+    <row r="48" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="43"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="45"/>
+      <c r="I48" s="45"/>
+      <c r="J48" s="45"/>
+      <c r="K48" s="46"/>
+      <c r="L48" s="253"/>
+      <c r="M48" s="254"/>
+      <c r="N48" s="255"/>
+      <c r="O48" s="255"/>
+      <c r="P48" s="47"/>
+    </row>
+    <row r="49" spans="2:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="32" t="s">
         <v>175</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="159"/>
-      <c r="E48" s="159"/>
-      <c r="F48" s="159"/>
-      <c r="G48" s="159"/>
-      <c r="H48" s="159"/>
-      <c r="I48" s="159"/>
-      <c r="J48" s="159"/>
-      <c r="L48" s="233"/>
-      <c r="M48" s="234"/>
-      <c r="N48" s="235"/>
-      <c r="O48" s="235"/>
-      <c r="P48" s="27"/>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B49" s="26"/>
-      <c r="C49" s="230" t="s">
-        <v>171</v>
-      </c>
-      <c r="D49" s="231">
-        <f t="shared" ref="D49:E53" si="2">D35+D42</f>
-        <v>11674</v>
-      </c>
-      <c r="E49" s="231">
-        <f t="shared" si="2"/>
-        <v>43518</v>
-      </c>
-      <c r="F49" s="256">
-        <f>D49/SUM(D$49:D$51)</f>
-        <v>0.27296109240553684</v>
-      </c>
-      <c r="G49" s="231"/>
-      <c r="H49" s="231"/>
-      <c r="I49" s="231"/>
-      <c r="J49" s="231"/>
-      <c r="L49" s="233">
-        <v>2785</v>
-      </c>
-      <c r="M49" s="234">
-        <f>IF(ISNUMBER(D49),D49/3.6/L49*1000,"")</f>
-        <v>1164.3726311589867</v>
-      </c>
-      <c r="N49" s="235">
-        <f t="shared" ref="N49:O52" si="3">SUBTOTAL(9,N35,N42)</f>
-        <v>791</v>
-      </c>
-      <c r="O49" s="235">
-        <f t="shared" si="3"/>
-        <v>2698.068888888889</v>
-      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="159"/>
+      <c r="E49" s="159"/>
+      <c r="F49" s="159"/>
+      <c r="G49" s="159"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="159"/>
+      <c r="J49" s="159"/>
+      <c r="L49" s="233"/>
+      <c r="M49" s="234"/>
+      <c r="N49" s="235"/>
+      <c r="O49" s="235"/>
       <c r="P49" s="27"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="26"/>
       <c r="C50" s="230" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D50" s="231">
-        <f t="shared" si="2"/>
-        <v>340</v>
+        <f>D35+D42</f>
+        <v>11674</v>
       </c>
       <c r="E50" s="231">
-        <f t="shared" si="2"/>
-        <v>1397</v>
+        <f>E35+E42</f>
+        <v>43518</v>
       </c>
       <c r="F50" s="256">
-        <f t="shared" ref="F50:F51" si="4">D50/SUM(D$49:D$51)</f>
-        <v>7.9498690609801723E-3</v>
+        <f>D50/SUM(D$50:D$52)</f>
+        <v>0.27296109240553684</v>
       </c>
       <c r="G50" s="231"/>
       <c r="H50" s="231"/>
       <c r="I50" s="231"/>
       <c r="J50" s="231"/>
       <c r="L50" s="233">
-        <v>820</v>
+        <v>2785</v>
       </c>
       <c r="M50" s="234">
         <f>IF(ISNUMBER(D50),D50/3.6/L50*1000,"")</f>
-        <v>115.17615176151762</v>
+        <v>1164.3726311589867</v>
       </c>
       <c r="N50" s="235">
-        <f t="shared" si="3"/>
-        <v>40</v>
+        <f>SUBTOTAL(9,N35,N42)</f>
+        <v>791</v>
       </c>
       <c r="O50" s="235">
-        <f t="shared" si="3"/>
-        <v>47.897777777777776</v>
+        <f>SUBTOTAL(9,O35,O42)</f>
+        <v>2698.068888888889</v>
       </c>
       <c r="P50" s="27"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="26"/>
       <c r="C51" s="230" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D51" s="231">
-        <f t="shared" si="2"/>
-        <v>30754</v>
+        <f>D36+D43</f>
+        <v>340</v>
       </c>
       <c r="E51" s="231">
-        <f t="shared" si="2"/>
-        <v>103126</v>
+        <f>E36+E43</f>
+        <v>1397</v>
       </c>
       <c r="F51" s="256">
-        <f t="shared" si="4"/>
-        <v>0.71908903853348294</v>
+        <f t="shared" ref="F51:F52" si="2">D51/SUM(D$50:D$52)</f>
+        <v>7.9498690609801723E-3</v>
       </c>
       <c r="G51" s="231"/>
       <c r="H51" s="231"/>
       <c r="I51" s="231"/>
       <c r="J51" s="231"/>
       <c r="L51" s="233">
-        <v>1925</v>
+        <v>820</v>
       </c>
       <c r="M51" s="234">
         <f>IF(ISNUMBER(D51),D51/3.6/L51*1000,"")</f>
-        <v>4437.8066378066378</v>
+        <v>115.17615176151762</v>
       </c>
       <c r="N51" s="235">
-        <f t="shared" si="3"/>
-        <v>1906</v>
+        <f>SUBTOTAL(9,N36,N43)</f>
+        <v>40</v>
       </c>
       <c r="O51" s="235">
-        <f t="shared" si="3"/>
-        <v>5534.5716666666676</v>
+        <f>SUBTOTAL(9,O36,O43)</f>
+        <v>47.897777777777776</v>
       </c>
       <c r="P51" s="27"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="26"/>
       <c r="C52" s="230" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D52" s="231">
+        <f>D37+D44</f>
+        <v>30754</v>
+      </c>
+      <c r="E52" s="231">
+        <f>E37+E44</f>
+        <v>103126</v>
+      </c>
+      <c r="F52" s="256">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E52" s="231">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F52" s="231"/>
+        <v>0.71908903853348294</v>
+      </c>
       <c r="G52" s="231"/>
       <c r="H52" s="231"/>
       <c r="I52" s="231"/>
       <c r="J52" s="231"/>
       <c r="L52" s="233">
-        <v>6000</v>
+        <v>1925</v>
       </c>
       <c r="M52" s="234">
         <f>IF(ISNUMBER(D52),D52/3.6/L52*1000,"")</f>
-        <v>0</v>
+        <v>4437.8066378066378</v>
       </c>
       <c r="N52" s="235">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUBTOTAL(9,N37,N44)</f>
+        <v>1906</v>
       </c>
       <c r="O52" s="235">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>SUBTOTAL(9,O37,O44)</f>
+        <v>5534.5716666666676</v>
       </c>
       <c r="P52" s="27"/>
     </row>
-    <row r="53" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="26"/>
-      <c r="C53" s="230" t="s">
+      <c r="C53" s="337" t="s">
+        <v>422</v>
+      </c>
+      <c r="D53" s="231"/>
+      <c r="E53" s="231"/>
+      <c r="F53" s="256"/>
+      <c r="G53" s="231"/>
+      <c r="H53" s="231"/>
+      <c r="I53" s="231"/>
+      <c r="J53" s="231"/>
+      <c r="L53" s="233"/>
+      <c r="M53" s="234"/>
+      <c r="N53" s="235"/>
+      <c r="O53" s="235"/>
+      <c r="P53" s="27"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="26"/>
+      <c r="C54" s="230" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54" s="231">
+        <f>D38+D46</f>
+        <v>0</v>
+      </c>
+      <c r="E54" s="231">
+        <f>E38+E46</f>
+        <v>0</v>
+      </c>
+      <c r="F54" s="231"/>
+      <c r="G54" s="231"/>
+      <c r="H54" s="231"/>
+      <c r="I54" s="231"/>
+      <c r="J54" s="231"/>
+      <c r="L54" s="233">
+        <v>6000</v>
+      </c>
+      <c r="M54" s="234">
+        <f>IF(ISNUMBER(D54),D54/3.6/L54*1000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="235">
+        <f>SUBTOTAL(9,N38,N46)</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="235">
+        <f>SUBTOTAL(9,O38,O46)</f>
+        <v>0</v>
+      </c>
+      <c r="P54" s="27"/>
+    </row>
+    <row r="55" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="26"/>
+      <c r="C55" s="230" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="239">
-        <f t="shared" si="2"/>
+      <c r="D55" s="239">
+        <f>D39+D47</f>
         <v>42768</v>
       </c>
-      <c r="E53" s="238">
-        <f t="shared" si="2"/>
+      <c r="E55" s="238">
+        <f>E39+E47</f>
         <v>148041</v>
       </c>
-      <c r="F53" s="238"/>
-      <c r="G53" s="238"/>
-      <c r="H53" s="238"/>
-      <c r="I53" s="238"/>
-      <c r="J53" s="238"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="239"/>
-      <c r="M53" s="249">
-        <f>SUBTOTAL(9,M49:M52)</f>
+      <c r="F55" s="238"/>
+      <c r="G55" s="238"/>
+      <c r="H55" s="238"/>
+      <c r="I55" s="238"/>
+      <c r="J55" s="238"/>
+      <c r="K55" s="37"/>
+      <c r="L55" s="239"/>
+      <c r="M55" s="249">
+        <f>SUBTOTAL(9,M50:M54)</f>
         <v>5717.3554207271418</v>
       </c>
-      <c r="N53" s="241">
-        <f>SUBTOTAL(9,N35:N52)</f>
+      <c r="N55" s="241">
+        <f>SUBTOTAL(9,N35:N54)</f>
         <v>2737</v>
       </c>
-      <c r="O53" s="241">
-        <f>SUBTOTAL(9,O35:O52)</f>
+      <c r="O55" s="241">
+        <f>SUBTOTAL(9,O35:O54)</f>
         <v>8280.5383333333339</v>
       </c>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="150"/>
-    </row>
-    <row r="54" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
-      <c r="G54" s="50"/>
-      <c r="H54" s="50"/>
-      <c r="I54" s="50"/>
-      <c r="J54" s="50"/>
-      <c r="K54" s="51"/>
-      <c r="L54" s="250"/>
-      <c r="M54" s="251"/>
-      <c r="N54" s="252"/>
-      <c r="O54" s="252"/>
-      <c r="P54" s="52"/>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B55" s="32" t="s">
+      <c r="P55" s="27"/>
+      <c r="Q55" s="150"/>
+    </row>
+    <row r="56" spans="2:17" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="48"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
+      <c r="H56" s="50"/>
+      <c r="I56" s="50"/>
+      <c r="J56" s="50"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="250"/>
+      <c r="M56" s="251"/>
+      <c r="N56" s="252"/>
+      <c r="O56" s="252"/>
+      <c r="P56" s="52"/>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="159"/>
-      <c r="E55" s="159"/>
-      <c r="F55" s="159"/>
-      <c r="G55" s="159"/>
-      <c r="H55" s="159"/>
-      <c r="I55" s="159"/>
-      <c r="J55" s="159"/>
-      <c r="L55" s="233"/>
-      <c r="M55" s="234"/>
-      <c r="N55" s="235"/>
-      <c r="O55" s="235"/>
-      <c r="P55" s="27"/>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B56" s="26"/>
-      <c r="C56" s="230" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="231">
-        <f>'CBS data 2019 (edited)'!J54+'CBS data 2019 (edited)'!J55+'CBS data 2019 (edited)'!J297+'CBS data 2019 (edited)'!J298+'CBS data 2019 (edited)'!J49+'CBS data 2019 (edited)'!J295</f>
-        <v>49661</v>
-      </c>
-      <c r="E56" s="231">
-        <f>'CBS data 2019 (edited)'!E49+'CBS data 2019 (edited)'!F49+'CBS data 2019 (edited)'!H49+'CBS data 2019 (edited)'!E54+'CBS data 2019 (edited)'!F54+'CBS data 2019 (edited)'!H54+'CBS data 2019 (edited)'!E55+'CBS data 2019 (edited)'!F55+'CBS data 2019 (edited)'!H55+'CBS data 2019 (edited)'!E298+'CBS data 2019 (edited)'!H298+'CBS data 2019 (edited)'!E295+'CBS data 2019 (edited)'!H295+'CBS data 2019 (edited)'!E297+'CBS data 2019 (edited)'!H297</f>
-        <v>103298</v>
-      </c>
-      <c r="F56" s="231"/>
-      <c r="G56" s="231"/>
-      <c r="H56" s="231"/>
-      <c r="I56" s="231"/>
-      <c r="J56" s="231"/>
-      <c r="L56" s="233">
-        <v>4975</v>
-      </c>
-      <c r="M56" s="234">
-        <f>IF(ISNUMBER(D56),D56/3.6/L56*1000,"")</f>
-        <v>2772.8084868788387</v>
-      </c>
-      <c r="N56" s="235">
-        <f>'CBS data 2019 (edited)'!L54+'CBS data 2019 (edited)'!L297+'CBS data 2019 (edited)'!L55+'CBS data 2019 (edited)'!L298+'CBS data 2019 (edited)'!L295+'CBS data 2019 (edited)'!L49</f>
-        <v>3547</v>
-      </c>
-      <c r="O56" s="235">
-        <f>'CBS data 2019 (edited)'!O54+'CBS data 2019 (edited)'!O297+'CBS data 2019 (edited)'!O55+'CBS data 2019 (edited)'!O298+'CBS data 2019 (edited)'!O295+'CBS data 2019 (edited)'!O49</f>
-        <v>2793.1255555555558</v>
-      </c>
-      <c r="P56" s="27"/>
-      <c r="Q56" s="164" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B57" s="26"/>
-      <c r="C57" s="230" t="s">
-        <v>170</v>
-      </c>
-      <c r="D57" s="231">
-        <v>0</v>
-      </c>
-      <c r="E57" s="231">
-        <v>0</v>
-      </c>
-      <c r="F57" s="231"/>
-      <c r="G57" s="231"/>
-      <c r="H57" s="231"/>
-      <c r="I57" s="231"/>
-      <c r="J57" s="231"/>
-      <c r="L57" s="233">
-        <v>4500</v>
-      </c>
-      <c r="M57" s="234">
-        <f>IF(ISNUMBER(D57),D57/3.6/L57*1000,"")</f>
-        <v>0</v>
-      </c>
-      <c r="N57" s="235">
-        <f>0</f>
-        <v>0</v>
-      </c>
-      <c r="O57" s="235">
-        <f>0</f>
-        <v>0</v>
-      </c>
+      <c r="C57" s="33"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="159"/>
+      <c r="F57" s="159"/>
+      <c r="G57" s="159"/>
+      <c r="H57" s="159"/>
+      <c r="I57" s="159"/>
+      <c r="J57" s="159"/>
+      <c r="L57" s="233"/>
+      <c r="M57" s="234"/>
+      <c r="N57" s="235"/>
+      <c r="O57" s="235"/>
       <c r="P57" s="27"/>
-      <c r="Q57" s="154" t="s">
-        <v>264</v>
-      </c>
     </row>
     <row r="58" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B58" s="26"/>
       <c r="C58" s="230" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D58" s="231">
-        <f>0</f>
-        <v>0</v>
+        <f>'CBS data 2019 (edited)'!J54+'CBS data 2019 (edited)'!J55+'CBS data 2019 (edited)'!J297+'CBS data 2019 (edited)'!J298+'CBS data 2019 (edited)'!J49+'CBS data 2019 (edited)'!J295</f>
+        <v>49661</v>
       </c>
       <c r="E58" s="231">
-        <f>0</f>
-        <v>0</v>
+        <f>'CBS data 2019 (edited)'!E49+'CBS data 2019 (edited)'!F49+'CBS data 2019 (edited)'!H49+'CBS data 2019 (edited)'!E54+'CBS data 2019 (edited)'!F54+'CBS data 2019 (edited)'!H54+'CBS data 2019 (edited)'!E55+'CBS data 2019 (edited)'!F55+'CBS data 2019 (edited)'!H55+'CBS data 2019 (edited)'!E298+'CBS data 2019 (edited)'!H298+'CBS data 2019 (edited)'!E295+'CBS data 2019 (edited)'!H295+'CBS data 2019 (edited)'!E297+'CBS data 2019 (edited)'!H297</f>
+        <v>103298</v>
       </c>
       <c r="F58" s="231"/>
       <c r="G58" s="231"/>
@@ -45865,34 +45846,35 @@
       <c r="I58" s="231"/>
       <c r="J58" s="231"/>
       <c r="L58" s="233">
-        <v>4500</v>
+        <v>4975</v>
       </c>
       <c r="M58" s="234">
         <f>IF(ISNUMBER(D58),D58/3.6/L58*1000,"")</f>
-        <v>0</v>
+        <v>2772.8084868788387</v>
       </c>
       <c r="N58" s="235">
-        <f>0</f>
-        <v>0</v>
+        <f>'CBS data 2019 (edited)'!L54+'CBS data 2019 (edited)'!L297+'CBS data 2019 (edited)'!L55+'CBS data 2019 (edited)'!L298+'CBS data 2019 (edited)'!L295+'CBS data 2019 (edited)'!L49</f>
+        <v>3547</v>
       </c>
       <c r="O58" s="235">
-        <f>0</f>
-        <v>0</v>
+        <f>'CBS data 2019 (edited)'!O54+'CBS data 2019 (edited)'!O297+'CBS data 2019 (edited)'!O55+'CBS data 2019 (edited)'!O298+'CBS data 2019 (edited)'!O295+'CBS data 2019 (edited)'!O49</f>
+        <v>2793.1255555555558</v>
       </c>
       <c r="P58" s="27"/>
+      <c r="Q58" s="164" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="59" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B59" s="26"/>
       <c r="C59" s="230" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D59" s="231">
-        <f>'CBS data 2019 (edited)'!J50+'CBS data 2019 (edited)'!J296</f>
-        <v>25355</v>
+        <v>0</v>
       </c>
       <c r="E59" s="231">
-        <f>'CBS data 2019 (edited)'!D50+'CBS data 2019 (edited)'!D296</f>
-        <v>64017</v>
+        <v>0</v>
       </c>
       <c r="F59" s="231"/>
       <c r="G59" s="231"/>
@@ -45904,302 +45886,342 @@
       </c>
       <c r="M59" s="234">
         <f>IF(ISNUMBER(D59),D59/3.6/L59*1000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="235">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O59" s="235">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="154" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B60" s="26"/>
+      <c r="C60" s="230" t="s">
+        <v>177</v>
+      </c>
+      <c r="D60" s="231">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="E60" s="231">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="231"/>
+      <c r="G60" s="231"/>
+      <c r="H60" s="231"/>
+      <c r="I60" s="231"/>
+      <c r="J60" s="231"/>
+      <c r="L60" s="233">
+        <v>4500</v>
+      </c>
+      <c r="M60" s="234">
+        <f>IF(ISNUMBER(D60),D60/3.6/L60*1000,"")</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="235">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="O60" s="235">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="P60" s="27"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B61" s="26"/>
+      <c r="C61" s="230" t="s">
+        <v>178</v>
+      </c>
+      <c r="D61" s="231">
+        <f>'CBS data 2019 (edited)'!J50+'CBS data 2019 (edited)'!J296</f>
+        <v>25355</v>
+      </c>
+      <c r="E61" s="231">
+        <f>'CBS data 2019 (edited)'!D50+'CBS data 2019 (edited)'!D296</f>
+        <v>64017</v>
+      </c>
+      <c r="F61" s="231"/>
+      <c r="G61" s="231"/>
+      <c r="H61" s="231"/>
+      <c r="I61" s="231"/>
+      <c r="J61" s="231"/>
+      <c r="L61" s="233">
+        <v>4500</v>
+      </c>
+      <c r="M61" s="234">
+        <f>IF(ISNUMBER(D61),D61/3.6/L61*1000,"")</f>
         <v>1565.1234567901236</v>
       </c>
-      <c r="N59" s="237">
+      <c r="N61" s="237">
         <f>'CBS data 2019 (edited)'!L50+'CBS data 2019 (edited)'!L296</f>
         <v>1838</v>
       </c>
-      <c r="O59" s="237">
+      <c r="O61" s="237">
         <f>'CBS data 2019 (edited)'!O50+'CBS data 2019 (edited)'!O296</f>
         <v>778.62777777777774</v>
       </c>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="162" t="s">
+      <c r="P61" s="27"/>
+      <c r="Q61" s="162" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="60" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="26"/>
-      <c r="C60" s="230" t="s">
+    <row r="62" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="26"/>
+      <c r="C62" s="230" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="238">
-        <f>SUBTOTAL(9,D56:D59)</f>
+      <c r="D62" s="238">
+        <f>SUBTOTAL(9,D58:D61)</f>
         <v>75016</v>
       </c>
-      <c r="E60" s="238">
-        <f>SUBTOTAL(9,E56:E59)</f>
+      <c r="E62" s="238">
+        <f>SUBTOTAL(9,E58:E61)</f>
         <v>167315</v>
       </c>
-      <c r="F60" s="238"/>
-      <c r="G60" s="238"/>
-      <c r="H60" s="238"/>
-      <c r="I60" s="238"/>
-      <c r="J60" s="238"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="239"/>
-      <c r="M60" s="249">
-        <f>SUBTOTAL(9,M56:M59)</f>
+      <c r="F62" s="238"/>
+      <c r="G62" s="238"/>
+      <c r="H62" s="238"/>
+      <c r="I62" s="238"/>
+      <c r="J62" s="238"/>
+      <c r="K62" s="37"/>
+      <c r="L62" s="239"/>
+      <c r="M62" s="249">
+        <f>SUBTOTAL(9,M58:M61)</f>
         <v>4337.931943668962</v>
       </c>
-      <c r="N60" s="241">
-        <f>SUBTOTAL(9,N56:N59)</f>
+      <c r="N62" s="241">
+        <f>SUBTOTAL(9,N58:N61)</f>
         <v>5385</v>
       </c>
-      <c r="O60" s="241">
-        <f>SUBTOTAL(9,O56:O59)</f>
+      <c r="O62" s="241">
+        <f>SUBTOTAL(9,O58:O61)</f>
         <v>3571.7533333333336</v>
       </c>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="150"/>
-    </row>
-    <row r="61" spans="2:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="40"/>
-      <c r="C61" s="41"/>
-      <c r="D61" s="42"/>
-      <c r="E61" s="42"/>
-      <c r="F61" s="42"/>
-      <c r="G61" s="42"/>
-      <c r="H61" s="42"/>
-      <c r="I61" s="42"/>
-      <c r="J61" s="42"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="242"/>
-      <c r="M61" s="243"/>
-      <c r="N61" s="257"/>
-      <c r="O61" s="257"/>
-      <c r="P61" s="31"/>
-    </row>
-    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B62" s="32" t="s">
+      <c r="P62" s="27"/>
+      <c r="Q62" s="150"/>
+    </row>
+    <row r="63" spans="2:17" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="40"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="242"/>
+      <c r="M63" s="243"/>
+      <c r="N63" s="257"/>
+      <c r="O63" s="257"/>
+      <c r="P63" s="31"/>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B64" s="32" t="s">
         <v>179</v>
       </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="159"/>
-      <c r="E62" s="159"/>
-      <c r="F62" s="159"/>
-      <c r="G62" s="159"/>
-      <c r="H62" s="159"/>
-      <c r="I62" s="159"/>
-      <c r="J62" s="159"/>
-      <c r="L62" s="233"/>
-      <c r="M62" s="234"/>
-      <c r="N62" s="258"/>
-      <c r="O62" s="258"/>
-      <c r="P62" s="27"/>
-    </row>
-    <row r="63" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B63" s="26"/>
-      <c r="C63" s="230" t="s">
+      <c r="C64" s="33"/>
+      <c r="D64" s="159"/>
+      <c r="E64" s="159"/>
+      <c r="F64" s="159"/>
+      <c r="G64" s="159"/>
+      <c r="H64" s="159"/>
+      <c r="I64" s="159"/>
+      <c r="J64" s="159"/>
+      <c r="L64" s="233"/>
+      <c r="M64" s="234"/>
+      <c r="N64" s="258"/>
+      <c r="O64" s="258"/>
+      <c r="P64" s="27"/>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B65" s="26"/>
+      <c r="C65" s="230" t="s">
         <v>180</v>
       </c>
-      <c r="D63" s="231">
+      <c r="D65" s="231">
         <f>'CBS data 2019 (edited)'!J354</f>
         <v>15874</v>
       </c>
-      <c r="E63" s="231">
+      <c r="E65" s="231">
         <f>'CBS data 2019 (edited)'!D354</f>
         <v>83404</v>
       </c>
-      <c r="F63" s="231"/>
-      <c r="G63" s="231"/>
-      <c r="H63" s="231">
+      <c r="F65" s="231"/>
+      <c r="G65" s="231"/>
+      <c r="H65" s="231">
         <f>'CBS data 2019 (edited)'!K354</f>
         <v>19048</v>
       </c>
-      <c r="I63" s="231"/>
-      <c r="J63" s="231"/>
-      <c r="L63" s="233">
+      <c r="I65" s="231"/>
+      <c r="J65" s="231"/>
+      <c r="L65" s="233">
         <v>4390</v>
       </c>
-      <c r="M63" s="234">
-        <f>IF(ISNUMBER(D63),D63/3.6/L63*1000,"")</f>
+      <c r="M65" s="234">
+        <f>IF(ISNUMBER(D65),D65/3.6/L65*1000,"")</f>
         <v>1004.429258415591</v>
       </c>
-      <c r="N63" s="235">
+      <c r="N65" s="235">
         <f>'CBS data 2019 (edited)'!L354</f>
         <v>895</v>
       </c>
-      <c r="O63" s="235">
+      <c r="O65" s="235">
         <f>'CBS data 2019 (edited)'!O354</f>
         <v>1227.9558333333334</v>
       </c>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="151" t="s">
+      <c r="P65" s="27"/>
+      <c r="Q65" s="151" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="64" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="48"/>
-      <c r="C64" s="259"/>
-      <c r="D64" s="260"/>
-      <c r="E64" s="259"/>
-      <c r="F64" s="259"/>
-      <c r="G64" s="259"/>
-      <c r="H64" s="259"/>
-      <c r="I64" s="259"/>
-      <c r="J64" s="259"/>
-      <c r="K64" s="51"/>
-      <c r="L64" s="260"/>
-      <c r="M64" s="261"/>
-      <c r="N64" s="259"/>
-      <c r="O64" s="259"/>
-      <c r="P64" s="52"/>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="17"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="17"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
-      <c r="K65" s="17"/>
-      <c r="L65" s="17"/>
-      <c r="M65" s="160"/>
-      <c r="N65" s="17"/>
-      <c r="O65" s="17"/>
-      <c r="P65" s="17"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="M66" s="161">
-        <f>SUBTOTAL(9,M29:M63)</f>
+    <row r="66" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="48"/>
+      <c r="C66" s="259"/>
+      <c r="D66" s="260"/>
+      <c r="E66" s="259"/>
+      <c r="F66" s="259"/>
+      <c r="G66" s="259"/>
+      <c r="H66" s="259"/>
+      <c r="I66" s="259"/>
+      <c r="J66" s="259"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="260"/>
+      <c r="M66" s="261"/>
+      <c r="N66" s="259"/>
+      <c r="O66" s="259"/>
+      <c r="P66" s="52"/>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="17"/>
+      <c r="L67" s="17"/>
+      <c r="M67" s="160"/>
+      <c r="N67" s="17"/>
+      <c r="O67" s="17"/>
+      <c r="P67" s="17"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="M68" s="161">
+        <f>SUBTOTAL(9,M29:M65)</f>
         <v>13514.900634150526</v>
       </c>
-      <c r="N66" s="137">
-        <f>SUBTOTAL(9,N28:N63)</f>
+      <c r="N68" s="137">
+        <f>SUBTOTAL(9,N28:N65)</f>
         <v>12007</v>
       </c>
-      <c r="O66" s="137">
-        <f>SUBTOTAL(9,O28:O63)</f>
+      <c r="O68" s="137">
+        <f>SUBTOTAL(9,O28:O65)</f>
         <v>16878.668055555558</v>
       </c>
-      <c r="Q66" s="150"/>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
+      <c r="Q68" s="150"/>
     </row>
     <row r="69" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B69" s="157" t="s">
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B71" s="157" t="s">
         <v>277</v>
       </c>
-      <c r="N69" s="159"/>
-      <c r="O69" s="159"/>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B70" s="162" t="s">
+      <c r="N71" s="159"/>
+      <c r="O71" s="159"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B72" s="162" t="s">
         <v>278</v>
       </c>
-      <c r="D70" s="163">
+      <c r="D72" s="163">
         <v>7847.4029759999994</v>
       </c>
-      <c r="E70" s="163">
+      <c r="E72" s="163">
         <v>18355.936030000001</v>
       </c>
-      <c r="N70" s="159">
+      <c r="N72" s="159">
         <f>'CBS data 2019 (edited)'!L51</f>
         <v>600</v>
       </c>
-      <c r="O70" s="159">
+      <c r="O72" s="159">
         <f>'CBS data 2019 (edited)'!O51</f>
         <v>350</v>
       </c>
-      <c r="Q70" s="18" t="s">
+      <c r="Q72" s="18" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B72" s="157" t="s">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B74" s="157" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B73" s="164" t="s">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B75" s="164" t="s">
         <v>406</v>
       </c>
-      <c r="N73" s="223">
-        <f>N59</f>
+      <c r="N75" s="223">
+        <f>N61</f>
         <v>1838</v>
       </c>
     </row>
-    <row r="74" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="164" t="s">
+    <row r="76" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="164" t="s">
         <v>407</v>
       </c>
-      <c r="N74" s="223">
-        <v>599.28264516129025</v>
-      </c>
-    </row>
-    <row r="75" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="164" t="s">
+      <c r="N76" s="223">
+        <f>M128+M130</f>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="164" t="s">
         <v>408</v>
       </c>
-      <c r="N75" s="224">
-        <f>N73-N74</f>
-        <v>1238.7173548387098</v>
-      </c>
-      <c r="O75" s="225" t="s">
+      <c r="N77" s="224">
+        <f>N75-N76</f>
+        <v>1239</v>
+      </c>
+      <c r="O77" s="225" t="s">
         <v>21</v>
       </c>
-      <c r="Q75" s="157" t="s">
+      <c r="Q77" s="157" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="85" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B85" s="262" t="s">
+    <row r="87" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B87" s="262" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="87" spans="2:15" ht="21" x14ac:dyDescent="0.25">
-      <c r="B87" s="263" t="s">
+    <row r="89" spans="2:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="B89" s="263" t="s">
         <v>157</v>
       </c>
-      <c r="C87" s="263"/>
-      <c r="D87" s="264"/>
-      <c r="E87" s="264"/>
-      <c r="F87" s="264"/>
-      <c r="G87" s="264"/>
-      <c r="H87" s="264"/>
-      <c r="I87" s="264"/>
-      <c r="J87" s="264"/>
-      <c r="K87" s="264"/>
-      <c r="L87" s="264"/>
-      <c r="M87" s="264"/>
-      <c r="N87" s="264"/>
-      <c r="O87" s="264"/>
-    </row>
-    <row r="88" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B88" s="264"/>
-      <c r="C88" s="264"/>
-      <c r="D88" s="264"/>
-      <c r="E88" s="264"/>
-      <c r="F88" s="264"/>
-      <c r="G88" s="264"/>
-      <c r="H88" s="264"/>
-      <c r="I88" s="264"/>
-      <c r="J88" s="264"/>
-      <c r="K88" s="264"/>
-      <c r="L88" s="264"/>
-      <c r="M88" s="264"/>
-      <c r="N88" s="264"/>
-      <c r="O88" s="264"/>
-    </row>
-    <row r="89" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B89" s="265" t="s">
-        <v>158</v>
-      </c>
-      <c r="C89" s="266"/>
-      <c r="D89" s="266"/>
-      <c r="E89" s="267"/>
+      <c r="C89" s="263"/>
+      <c r="D89" s="264"/>
+      <c r="E89" s="264"/>
       <c r="F89" s="264"/>
       <c r="G89" s="264"/>
       <c r="H89" s="264"/>
@@ -46211,13 +46233,11 @@
       <c r="N89" s="264"/>
       <c r="O89" s="264"/>
     </row>
-    <row r="90" spans="2:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="328" t="s">
-        <v>411</v>
-      </c>
-      <c r="C90" s="329"/>
-      <c r="D90" s="329"/>
-      <c r="E90" s="330"/>
+    <row r="90" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B90" s="264"/>
+      <c r="C90" s="264"/>
+      <c r="D90" s="264"/>
+      <c r="E90" s="264"/>
       <c r="F90" s="264"/>
       <c r="G90" s="264"/>
       <c r="H90" s="264"/>
@@ -46229,11 +46249,13 @@
       <c r="N90" s="264"/>
       <c r="O90" s="264"/>
     </row>
-    <row r="91" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="264"/>
-      <c r="C91" s="264"/>
-      <c r="D91" s="264"/>
-      <c r="E91" s="264"/>
+    <row r="91" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B91" s="265" t="s">
+        <v>158</v>
+      </c>
+      <c r="C91" s="266"/>
+      <c r="D91" s="266"/>
+      <c r="E91" s="267"/>
       <c r="F91" s="264"/>
       <c r="G91" s="264"/>
       <c r="H91" s="264"/>
@@ -46245,26 +46267,26 @@
       <c r="N91" s="264"/>
       <c r="O91" s="264"/>
     </row>
-    <row r="92" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B92" s="268" t="s">
-        <v>159</v>
-      </c>
-      <c r="C92" s="269"/>
-      <c r="D92" s="270"/>
-      <c r="E92" s="270"/>
-      <c r="F92" s="270"/>
-      <c r="G92" s="270"/>
-      <c r="H92" s="270"/>
-      <c r="I92" s="270"/>
-      <c r="J92" s="270"/>
-      <c r="K92" s="270"/>
-      <c r="L92" s="270"/>
-      <c r="M92" s="270"/>
-      <c r="N92" s="270"/>
-      <c r="O92" s="271"/>
-    </row>
-    <row r="93" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B93" s="272"/>
+    <row r="92" spans="2:15" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B92" s="328" t="s">
+        <v>411</v>
+      </c>
+      <c r="C92" s="329"/>
+      <c r="D92" s="329"/>
+      <c r="E92" s="330"/>
+      <c r="F92" s="264"/>
+      <c r="G92" s="264"/>
+      <c r="H92" s="264"/>
+      <c r="I92" s="264"/>
+      <c r="J92" s="264"/>
+      <c r="K92" s="264"/>
+      <c r="L92" s="264"/>
+      <c r="M92" s="264"/>
+      <c r="N92" s="264"/>
+      <c r="O92" s="264"/>
+    </row>
+    <row r="93" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="264"/>
       <c r="C93" s="264"/>
       <c r="D93" s="264"/>
       <c r="E93" s="264"/>
@@ -46277,53 +46299,29 @@
       <c r="L93" s="264"/>
       <c r="M93" s="264"/>
       <c r="N93" s="264"/>
-      <c r="O93" s="273"/>
-    </row>
-    <row r="94" spans="2:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="B94" s="274" t="s">
-        <v>160</v>
-      </c>
-      <c r="C94" s="275" t="s">
-        <v>161</v>
-      </c>
-      <c r="D94" s="276" t="s">
-        <v>412</v>
-      </c>
-      <c r="E94" s="276" t="s">
-        <v>413</v>
-      </c>
-      <c r="F94" s="277" t="s">
-        <v>414</v>
-      </c>
-      <c r="G94" s="277" t="s">
-        <v>415</v>
-      </c>
-      <c r="H94" s="276" t="s">
-        <v>416</v>
-      </c>
-      <c r="I94" s="277" t="s">
-        <v>417</v>
-      </c>
-      <c r="J94" s="277" t="s">
-        <v>418</v>
-      </c>
-      <c r="K94" s="278"/>
-      <c r="L94" s="279" t="s">
-        <v>419</v>
-      </c>
-      <c r="M94" s="280" t="s">
-        <v>420</v>
-      </c>
-      <c r="N94" s="280" t="s">
-        <v>421</v>
-      </c>
-      <c r="O94" s="281"/>
+      <c r="O93" s="264"/>
+    </row>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B94" s="268" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="269"/>
+      <c r="D94" s="270"/>
+      <c r="E94" s="270"/>
+      <c r="F94" s="270"/>
+      <c r="G94" s="270"/>
+      <c r="H94" s="270"/>
+      <c r="I94" s="270"/>
+      <c r="J94" s="270"/>
+      <c r="K94" s="270"/>
+      <c r="L94" s="270"/>
+      <c r="M94" s="270"/>
+      <c r="N94" s="270"/>
+      <c r="O94" s="271"/>
     </row>
     <row r="95" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B95" s="282" t="s">
-        <v>273</v>
-      </c>
-      <c r="C95" s="283"/>
+      <c r="B95" s="272"/>
+      <c r="C95" s="264"/>
       <c r="D95" s="264"/>
       <c r="E95" s="264"/>
       <c r="F95" s="264"/>
@@ -46332,253 +46330,247 @@
       <c r="I95" s="264"/>
       <c r="J95" s="264"/>
       <c r="K95" s="264"/>
-      <c r="L95" s="284"/>
+      <c r="L95" s="264"/>
       <c r="M95" s="264"/>
       <c r="N95" s="264"/>
       <c r="O95" s="273"/>
     </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B96" s="285"/>
-      <c r="C96" s="286" t="s">
-        <v>163</v>
-      </c>
-      <c r="D96" s="287">
-        <v>46296.070977593357</v>
-      </c>
-      <c r="E96" s="287">
-        <v>115740.17744398338</v>
-      </c>
-      <c r="F96" s="287">
-        <v>61332.400904330279</v>
-      </c>
-      <c r="G96" s="287">
-        <v>54407.776539653103</v>
-      </c>
-      <c r="H96" s="287">
-        <v>57870.088721991691</v>
-      </c>
-      <c r="I96" s="287">
-        <v>8903.0898363039032</v>
-      </c>
-      <c r="J96" s="287">
-        <v>48966.99888568779</v>
-      </c>
-      <c r="K96" s="264"/>
-      <c r="L96" s="288">
-        <v>4530</v>
-      </c>
-      <c r="M96" s="289">
-        <v>2838.8564494477164</v>
-      </c>
-      <c r="N96" s="289">
-        <v>3548.5705618096449</v>
-      </c>
-      <c r="O96" s="273"/>
+    <row r="96" spans="2:15" ht="34" x14ac:dyDescent="0.2">
+      <c r="B96" s="274" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" s="275" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" s="276" t="s">
+        <v>412</v>
+      </c>
+      <c r="E96" s="276" t="s">
+        <v>413</v>
+      </c>
+      <c r="F96" s="277" t="s">
+        <v>414</v>
+      </c>
+      <c r="G96" s="277" t="s">
+        <v>415</v>
+      </c>
+      <c r="H96" s="276" t="s">
+        <v>416</v>
+      </c>
+      <c r="I96" s="277" t="s">
+        <v>417</v>
+      </c>
+      <c r="J96" s="277" t="s">
+        <v>418</v>
+      </c>
+      <c r="K96" s="278"/>
+      <c r="L96" s="279" t="s">
+        <v>419</v>
+      </c>
+      <c r="M96" s="280" t="s">
+        <v>420</v>
+      </c>
+      <c r="N96" s="280" t="s">
+        <v>421</v>
+      </c>
+      <c r="O96" s="281"/>
     </row>
     <row r="97" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B97" s="285"/>
-      <c r="C97" s="286" t="s">
-        <v>164</v>
-      </c>
-      <c r="D97" s="287">
-        <v>3064.4172783989998</v>
-      </c>
-      <c r="E97" s="287">
-        <v>7474.1884839000004</v>
-      </c>
-      <c r="F97" s="287">
-        <v>3783.2312079000003</v>
-      </c>
-      <c r="G97" s="287">
-        <v>3690.9572760000001</v>
-      </c>
-      <c r="H97" s="287">
-        <v>2989.6753935600004</v>
-      </c>
-      <c r="I97" s="287">
-        <v>0</v>
-      </c>
-      <c r="J97" s="287">
-        <v>2989.6753935600004</v>
-      </c>
+      <c r="B97" s="282" t="s">
+        <v>273</v>
+      </c>
+      <c r="C97" s="283"/>
+      <c r="D97" s="264"/>
+      <c r="E97" s="264"/>
+      <c r="F97" s="264"/>
+      <c r="G97" s="264"/>
+      <c r="H97" s="264"/>
+      <c r="I97" s="264"/>
+      <c r="J97" s="264"/>
       <c r="K97" s="264"/>
-      <c r="L97" s="288">
-        <v>8500</v>
-      </c>
-      <c r="M97" s="289">
-        <v>100.14435550323527</v>
-      </c>
-      <c r="N97" s="289">
-        <v>97.70181024705883</v>
-      </c>
+      <c r="L97" s="284"/>
+      <c r="M97" s="264"/>
+      <c r="N97" s="264"/>
       <c r="O97" s="273"/>
     </row>
     <row r="98" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B98" s="285"/>
       <c r="C98" s="286" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D98" s="287">
-        <v>1516.7263391134861</v>
+        <v>45938</v>
       </c>
       <c r="E98" s="287">
-        <v>8288.1220716583939</v>
+        <v>109376</v>
       </c>
       <c r="F98" s="287">
-        <v>8182.8035571249857</v>
+        <v>58799</v>
       </c>
       <c r="G98" s="287">
-        <v>105.31851453340811</v>
+        <v>50577</v>
       </c>
       <c r="H98" s="287">
-        <v>3895.4173736794451</v>
+        <v>54688</v>
       </c>
       <c r="I98" s="287">
-        <v>3826.6443836891294</v>
+        <v>8157</v>
       </c>
       <c r="J98" s="287">
-        <v>68.772989990315494</v>
+        <v>46531</v>
       </c>
       <c r="K98" s="264"/>
       <c r="L98" s="288">
+        <v>4500</v>
+      </c>
+      <c r="M98" s="289">
+        <v>2836</v>
+      </c>
+      <c r="N98" s="289">
+        <v>3376</v>
+      </c>
+      <c r="O98" s="273"/>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B99" s="285"/>
+      <c r="C99" s="286" t="s">
+        <v>164</v>
+      </c>
+      <c r="D99" s="287">
+        <v>3220</v>
+      </c>
+      <c r="E99" s="287">
+        <v>7666</v>
+      </c>
+      <c r="F99" s="287">
+        <v>3975</v>
+      </c>
+      <c r="G99" s="287">
+        <v>3691</v>
+      </c>
+      <c r="H99" s="287">
+        <v>2990</v>
+      </c>
+      <c r="I99" s="287">
+        <v>0</v>
+      </c>
+      <c r="J99" s="287">
+        <v>2990</v>
+      </c>
+      <c r="K99" s="264"/>
+      <c r="L99" s="288">
         <v>8500</v>
       </c>
-      <c r="M98" s="289">
-        <v>49.566220232466868</v>
-      </c>
-      <c r="N98" s="289">
-        <v>127.30122136207336</v>
-      </c>
-      <c r="O98" s="273"/>
-    </row>
-    <row r="99" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="272"/>
-      <c r="C99" s="286" t="s">
+      <c r="M99" s="289">
+        <v>105</v>
+      </c>
+      <c r="N99" s="289">
+        <v>98</v>
+      </c>
+      <c r="O99" s="273"/>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B100" s="285"/>
+      <c r="C100" s="286" t="s">
+        <v>165</v>
+      </c>
+      <c r="D100" s="287">
+        <v>1515</v>
+      </c>
+      <c r="E100" s="287">
+        <v>8277</v>
+      </c>
+      <c r="F100" s="287">
+        <v>8171</v>
+      </c>
+      <c r="G100" s="287">
+        <v>105</v>
+      </c>
+      <c r="H100" s="287">
+        <v>3890</v>
+      </c>
+      <c r="I100" s="287">
+        <v>3821</v>
+      </c>
+      <c r="J100" s="287">
+        <v>69</v>
+      </c>
+      <c r="K100" s="264"/>
+      <c r="L100" s="288">
+        <v>8500</v>
+      </c>
+      <c r="M100" s="289">
+        <v>49</v>
+      </c>
+      <c r="N100" s="289">
+        <v>127</v>
+      </c>
+      <c r="O100" s="273"/>
+    </row>
+    <row r="101" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="272"/>
+      <c r="C101" s="286" t="s">
         <v>166</v>
       </c>
-      <c r="D99" s="290">
-        <v>50877.214595105841</v>
-      </c>
-      <c r="E99" s="290">
-        <v>131502.48799954177</v>
-      </c>
-      <c r="F99" s="290">
-        <v>73298.435669355269</v>
-      </c>
-      <c r="G99" s="290">
-        <v>58204.052330186511</v>
-      </c>
-      <c r="H99" s="290">
-        <v>64755.181489231138</v>
-      </c>
-      <c r="I99" s="290">
-        <v>12729.734219993032</v>
-      </c>
-      <c r="J99" s="290">
-        <v>52025.447269238102</v>
-      </c>
-      <c r="K99" s="291"/>
-      <c r="L99" s="292"/>
-      <c r="M99" s="293">
-        <v>2988.5670251834185</v>
-      </c>
-      <c r="N99" s="293">
-        <v>3773.5735934187769</v>
-      </c>
-      <c r="O99" s="273"/>
-    </row>
-    <row r="100" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="294"/>
-      <c r="C100" s="295"/>
-      <c r="D100" s="296"/>
-      <c r="E100" s="296"/>
-      <c r="F100" s="296"/>
-      <c r="G100" s="296"/>
-      <c r="H100" s="296"/>
-      <c r="I100" s="296"/>
-      <c r="J100" s="296"/>
-      <c r="K100" s="297"/>
-      <c r="L100" s="298"/>
-      <c r="M100" s="299"/>
-      <c r="N100" s="299"/>
-      <c r="O100" s="300"/>
-    </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B101" s="282" t="s">
+      <c r="D101" s="290">
+        <v>50672</v>
+      </c>
+      <c r="E101" s="290">
+        <v>125318</v>
+      </c>
+      <c r="F101" s="290">
+        <v>70946</v>
+      </c>
+      <c r="G101" s="290">
+        <v>54373</v>
+      </c>
+      <c r="H101" s="290">
+        <v>61568</v>
+      </c>
+      <c r="I101" s="290">
+        <v>11979</v>
+      </c>
+      <c r="J101" s="290">
+        <v>49589</v>
+      </c>
+      <c r="K101" s="291"/>
+      <c r="L101" s="292"/>
+      <c r="M101" s="293">
+        <v>2990</v>
+      </c>
+      <c r="N101" s="293">
+        <v>3601</v>
+      </c>
+      <c r="O101" s="273"/>
+    </row>
+    <row r="102" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="294"/>
+      <c r="C102" s="295"/>
+      <c r="D102" s="296"/>
+      <c r="E102" s="296"/>
+      <c r="F102" s="296"/>
+      <c r="G102" s="296"/>
+      <c r="H102" s="296"/>
+      <c r="I102" s="296"/>
+      <c r="J102" s="296"/>
+      <c r="K102" s="297"/>
+      <c r="L102" s="298"/>
+      <c r="M102" s="299"/>
+      <c r="N102" s="299"/>
+      <c r="O102" s="300"/>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B103" s="282" t="s">
         <v>169</v>
       </c>
-      <c r="C101" s="283"/>
-      <c r="D101" s="301"/>
-      <c r="E101" s="301"/>
-      <c r="F101" s="301"/>
-      <c r="G101" s="301"/>
-      <c r="H101" s="301"/>
-      <c r="I101" s="301"/>
-      <c r="J101" s="301"/>
-      <c r="K101" s="264"/>
-      <c r="L101" s="288"/>
-      <c r="M101" s="289"/>
-      <c r="N101" s="289"/>
-      <c r="O101" s="273"/>
-    </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B102" s="272"/>
-      <c r="C102" s="286" t="s">
-        <v>171</v>
-      </c>
-      <c r="D102" s="287">
-        <v>5199.1279889024099</v>
-      </c>
-      <c r="E102" s="287">
-        <v>21006.577732939033</v>
-      </c>
-      <c r="F102" s="287">
-        <v>21006.577732939033</v>
-      </c>
-      <c r="G102" s="287">
-        <v>0</v>
-      </c>
-      <c r="H102" s="287">
-        <v>7352.3022065286605</v>
-      </c>
-      <c r="I102" s="287">
-        <v>7352.3022065286605</v>
-      </c>
-      <c r="J102" s="287">
-        <v>0</v>
-      </c>
-      <c r="K102" s="264"/>
-      <c r="L102" s="288"/>
-      <c r="M102" s="289"/>
-      <c r="N102" s="289"/>
-      <c r="O102" s="273"/>
-    </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B103" s="272"/>
-      <c r="C103" s="286" t="s">
-        <v>172</v>
-      </c>
-      <c r="D103" s="287">
-        <v>0</v>
-      </c>
-      <c r="E103" s="287">
-        <v>0</v>
-      </c>
-      <c r="F103" s="287">
-        <v>0</v>
-      </c>
-      <c r="G103" s="287">
-        <v>0</v>
-      </c>
-      <c r="H103" s="287">
-        <v>0</v>
-      </c>
-      <c r="I103" s="287">
-        <v>0</v>
-      </c>
-      <c r="J103" s="287">
-        <v>0</v>
-      </c>
+      <c r="C103" s="283"/>
+      <c r="D103" s="301"/>
+      <c r="E103" s="301"/>
+      <c r="F103" s="301"/>
+      <c r="G103" s="301"/>
+      <c r="H103" s="301"/>
+      <c r="I103" s="301"/>
+      <c r="J103" s="301"/>
       <c r="K103" s="264"/>
       <c r="L103" s="288"/>
       <c r="M103" s="289"/>
@@ -46588,25 +46580,25 @@
     <row r="104" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B104" s="272"/>
       <c r="C104" s="286" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D104" s="287">
-        <v>3634.8389331604317</v>
+        <v>5199</v>
       </c>
       <c r="E104" s="287">
-        <v>8394.5471897469542</v>
+        <v>19256</v>
       </c>
       <c r="F104" s="287">
-        <v>8394.5471897469542</v>
+        <v>19256</v>
       </c>
       <c r="G104" s="287">
         <v>0</v>
       </c>
       <c r="H104" s="287">
-        <v>2560.3368928728214</v>
+        <v>6740</v>
       </c>
       <c r="I104" s="287">
-        <v>2560.3368928728214</v>
+        <v>6740</v>
       </c>
       <c r="J104" s="287">
         <v>0</v>
@@ -46620,7 +46612,7 @@
     <row r="105" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B105" s="272"/>
       <c r="C105" s="286" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D105" s="287">
         <v>0</v>
@@ -46652,25 +46644,25 @@
     <row r="106" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B106" s="272"/>
       <c r="C106" s="286" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D106" s="287">
-        <v>8833.9669220628421</v>
+        <v>3635</v>
       </c>
       <c r="E106" s="287">
-        <v>29401.124922685987</v>
+        <v>8395</v>
       </c>
       <c r="F106" s="287">
-        <v>29401.124922685987</v>
+        <v>8395</v>
       </c>
       <c r="G106" s="287">
         <v>0</v>
       </c>
       <c r="H106" s="287">
-        <v>9912.6390994014819</v>
+        <v>2560</v>
       </c>
       <c r="I106" s="287">
-        <v>9912.6390994014819</v>
+        <v>2560</v>
       </c>
       <c r="J106" s="287">
         <v>0</v>
@@ -46682,33 +46674,63 @@
       <c r="O106" s="273"/>
     </row>
     <row r="107" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B107" s="302"/>
-      <c r="C107" s="303"/>
-      <c r="D107" s="304"/>
-      <c r="E107" s="304"/>
-      <c r="F107" s="304"/>
-      <c r="G107" s="304"/>
-      <c r="H107" s="304"/>
-      <c r="I107" s="304"/>
-      <c r="J107" s="304"/>
-      <c r="K107" s="278"/>
-      <c r="L107" s="305"/>
-      <c r="M107" s="306"/>
-      <c r="N107" s="306"/>
-      <c r="O107" s="281"/>
+      <c r="B107" s="272"/>
+      <c r="C107" s="286" t="s">
+        <v>170</v>
+      </c>
+      <c r="D107" s="287">
+        <v>0</v>
+      </c>
+      <c r="E107" s="287">
+        <v>0</v>
+      </c>
+      <c r="F107" s="287">
+        <v>0</v>
+      </c>
+      <c r="G107" s="287">
+        <v>0</v>
+      </c>
+      <c r="H107" s="287">
+        <v>0</v>
+      </c>
+      <c r="I107" s="287">
+        <v>0</v>
+      </c>
+      <c r="J107" s="287">
+        <v>0</v>
+      </c>
+      <c r="K107" s="264"/>
+      <c r="L107" s="288"/>
+      <c r="M107" s="289"/>
+      <c r="N107" s="289"/>
+      <c r="O107" s="273"/>
     </row>
     <row r="108" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B108" s="282" t="s">
-        <v>174</v>
-      </c>
-      <c r="C108" s="283"/>
-      <c r="D108" s="301"/>
-      <c r="E108" s="301"/>
-      <c r="F108" s="301"/>
-      <c r="G108" s="301"/>
-      <c r="H108" s="301"/>
-      <c r="I108" s="301"/>
-      <c r="J108" s="301"/>
+      <c r="B108" s="272"/>
+      <c r="C108" s="286" t="s">
+        <v>166</v>
+      </c>
+      <c r="D108" s="287">
+        <v>8834</v>
+      </c>
+      <c r="E108" s="287">
+        <v>27651</v>
+      </c>
+      <c r="F108" s="287">
+        <v>27651</v>
+      </c>
+      <c r="G108" s="287">
+        <v>0</v>
+      </c>
+      <c r="H108" s="287">
+        <v>9300</v>
+      </c>
+      <c r="I108" s="287">
+        <v>9300</v>
+      </c>
+      <c r="J108" s="287">
+        <v>0</v>
+      </c>
       <c r="K108" s="264"/>
       <c r="L108" s="288"/>
       <c r="M108" s="289"/>
@@ -46716,63 +46738,33 @@
       <c r="O108" s="273"/>
     </row>
     <row r="109" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B109" s="272"/>
-      <c r="C109" s="286" t="s">
-        <v>171</v>
-      </c>
-      <c r="D109" s="287">
-        <v>2724.0703043142917</v>
-      </c>
-      <c r="E109" s="287">
-        <v>11006.344663896129</v>
-      </c>
-      <c r="F109" s="287">
-        <v>4559.1134800239188</v>
-      </c>
-      <c r="G109" s="287">
-        <v>6447.2311838722098</v>
-      </c>
-      <c r="H109" s="287">
-        <v>3852.2206323636447</v>
-      </c>
-      <c r="I109" s="287">
-        <v>0</v>
-      </c>
-      <c r="J109" s="287">
-        <v>3852.2206323636447</v>
-      </c>
-      <c r="K109" s="264"/>
-      <c r="L109" s="288"/>
-      <c r="M109" s="289"/>
-      <c r="N109" s="289"/>
-      <c r="O109" s="273"/>
+      <c r="B109" s="302"/>
+      <c r="C109" s="303"/>
+      <c r="D109" s="304"/>
+      <c r="E109" s="304"/>
+      <c r="F109" s="304"/>
+      <c r="G109" s="304"/>
+      <c r="H109" s="304"/>
+      <c r="I109" s="304"/>
+      <c r="J109" s="304"/>
+      <c r="K109" s="278"/>
+      <c r="L109" s="305"/>
+      <c r="M109" s="306"/>
+      <c r="N109" s="306"/>
+      <c r="O109" s="281"/>
     </row>
     <row r="110" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B110" s="272"/>
-      <c r="C110" s="286" t="s">
-        <v>172</v>
-      </c>
-      <c r="D110" s="287">
-        <v>115.51308349549276</v>
-      </c>
-      <c r="E110" s="287">
-        <v>268.63507789649481</v>
-      </c>
-      <c r="F110" s="287">
-        <v>128.3478705505475</v>
-      </c>
-      <c r="G110" s="287">
-        <v>140.28720734594731</v>
-      </c>
-      <c r="H110" s="287">
-        <v>126.25848661135255</v>
-      </c>
-      <c r="I110" s="287">
-        <v>0</v>
-      </c>
-      <c r="J110" s="287">
-        <v>126.25848661135255</v>
-      </c>
+      <c r="B110" s="282" t="s">
+        <v>174</v>
+      </c>
+      <c r="C110" s="283"/>
+      <c r="D110" s="301"/>
+      <c r="E110" s="301"/>
+      <c r="F110" s="301"/>
+      <c r="G110" s="301"/>
+      <c r="H110" s="301"/>
+      <c r="I110" s="301"/>
+      <c r="J110" s="301"/>
       <c r="K110" s="264"/>
       <c r="L110" s="288"/>
       <c r="M110" s="289"/>
@@ -46782,28 +46774,28 @@
     <row r="111" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B111" s="272"/>
       <c r="C111" s="286" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D111" s="287">
-        <v>9580.1115541350136</v>
+        <v>2092</v>
       </c>
       <c r="E111" s="287">
-        <v>22124.968947194026</v>
+        <v>7749</v>
       </c>
       <c r="F111" s="287">
-        <v>13000.382922419636</v>
+        <v>3374</v>
       </c>
       <c r="G111" s="287">
-        <v>9124.5860247743894</v>
+        <v>4374</v>
       </c>
       <c r="H111" s="287">
-        <v>6748.1155288941773</v>
+        <v>2712</v>
       </c>
       <c r="I111" s="287">
-        <v>14.171042610677709</v>
+        <v>0</v>
       </c>
       <c r="J111" s="287">
-        <v>6733.9444862834998</v>
+        <v>2712</v>
       </c>
       <c r="K111" s="264"/>
       <c r="L111" s="288"/>
@@ -46814,28 +46806,28 @@
     <row r="112" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B112" s="272"/>
       <c r="C112" s="286" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D112" s="287">
-        <v>10.325224886513979</v>
+        <v>89</v>
       </c>
       <c r="E112" s="287">
-        <v>25.813062216284948</v>
+        <v>206</v>
       </c>
       <c r="F112" s="287">
-        <v>18.773136157298143</v>
+        <v>99</v>
       </c>
       <c r="G112" s="287">
-        <v>7.0399260589868033</v>
+        <v>108</v>
       </c>
       <c r="H112" s="287">
-        <v>3.8719593324427422</v>
+        <v>97</v>
       </c>
       <c r="I112" s="287">
         <v>0</v>
       </c>
       <c r="J112" s="287">
-        <v>3.8719593324427422</v>
+        <v>97</v>
       </c>
       <c r="K112" s="264"/>
       <c r="L112" s="288"/>
@@ -46846,28 +46838,28 @@
     <row r="113" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B113" s="272"/>
       <c r="C113" s="286" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="D113" s="287">
-        <v>12430.020166831313</v>
+        <v>7358</v>
       </c>
       <c r="E113" s="287">
-        <v>33425.761751202939</v>
+        <v>16993</v>
       </c>
       <c r="F113" s="287">
-        <v>17706.6174091514</v>
+        <v>9970</v>
       </c>
       <c r="G113" s="287">
-        <v>15719.144342051535</v>
+        <v>7023</v>
       </c>
       <c r="H113" s="287">
-        <v>10730.466607201617</v>
+        <v>5183</v>
       </c>
       <c r="I113" s="287">
-        <v>14.171042610677709</v>
+        <v>0</v>
       </c>
       <c r="J113" s="287">
-        <v>10716.295564590939</v>
+        <v>5183</v>
       </c>
       <c r="K113" s="264"/>
       <c r="L113" s="288"/>
@@ -46875,34 +46867,64 @@
       <c r="N113" s="289"/>
       <c r="O113" s="273"/>
     </row>
-    <row r="114" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B114" s="307"/>
-      <c r="C114" s="308"/>
-      <c r="D114" s="309"/>
-      <c r="E114" s="309"/>
-      <c r="F114" s="309"/>
-      <c r="G114" s="309"/>
-      <c r="H114" s="309"/>
-      <c r="I114" s="309"/>
-      <c r="J114" s="309"/>
-      <c r="K114" s="310"/>
-      <c r="L114" s="311"/>
-      <c r="M114" s="312"/>
-      <c r="N114" s="312"/>
-      <c r="O114" s="313"/>
-    </row>
-    <row r="115" spans="2:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B115" s="282" t="s">
-        <v>175</v>
-      </c>
-      <c r="C115" s="314"/>
-      <c r="D115" s="301"/>
-      <c r="E115" s="301"/>
-      <c r="F115" s="301"/>
-      <c r="G115" s="301"/>
-      <c r="H115" s="301"/>
-      <c r="I115" s="301"/>
-      <c r="J115" s="301"/>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B114" s="272"/>
+      <c r="C114" s="286" t="s">
+        <v>422</v>
+      </c>
+      <c r="D114" s="287">
+        <v>3084</v>
+      </c>
+      <c r="E114" s="287">
+        <v>8328</v>
+      </c>
+      <c r="F114" s="287">
+        <v>8328</v>
+      </c>
+      <c r="G114" s="287">
+        <v>0</v>
+      </c>
+      <c r="H114" s="287">
+        <v>216</v>
+      </c>
+      <c r="I114" s="287">
+        <v>216</v>
+      </c>
+      <c r="J114" s="287">
+        <v>0</v>
+      </c>
+      <c r="K114" s="264"/>
+      <c r="L114" s="288"/>
+      <c r="M114" s="289"/>
+      <c r="N114" s="289"/>
+      <c r="O114" s="273"/>
+    </row>
+    <row r="115" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B115" s="272"/>
+      <c r="C115" s="286" t="s">
+        <v>170</v>
+      </c>
+      <c r="D115" s="287">
+        <v>12</v>
+      </c>
+      <c r="E115" s="287">
+        <v>31</v>
+      </c>
+      <c r="F115" s="287">
+        <v>23</v>
+      </c>
+      <c r="G115" s="287">
+        <v>8</v>
+      </c>
+      <c r="H115" s="287">
+        <v>5</v>
+      </c>
+      <c r="I115" s="287">
+        <v>0</v>
+      </c>
+      <c r="J115" s="287">
+        <v>5</v>
+      </c>
       <c r="K115" s="264"/>
       <c r="L115" s="288"/>
       <c r="M115" s="289"/>
@@ -46912,500 +46934,604 @@
     <row r="116" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B116" s="272"/>
       <c r="C116" s="286" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="D116" s="287">
-        <v>7923.1982932167011</v>
+        <v>12635</v>
       </c>
       <c r="E116" s="287">
-        <v>32012.922396835162</v>
+        <v>33307</v>
       </c>
       <c r="F116" s="287">
-        <v>25565.691212962953</v>
+        <v>21794</v>
       </c>
       <c r="G116" s="287">
-        <v>6447.2311838722098</v>
+        <v>11513</v>
       </c>
       <c r="H116" s="287">
-        <v>11204.522838892306</v>
+        <v>8212</v>
       </c>
       <c r="I116" s="287">
-        <v>7352.3022065286605</v>
+        <v>216</v>
       </c>
       <c r="J116" s="287">
-        <v>3852.2206323636447</v>
+        <v>7997</v>
       </c>
       <c r="K116" s="264"/>
-      <c r="L116" s="288">
-        <v>2785</v>
-      </c>
-      <c r="M116" s="289">
-        <v>790.26513995777987</v>
-      </c>
-      <c r="N116" s="289">
-        <v>1117.5466625665576</v>
-      </c>
+      <c r="L116" s="288"/>
+      <c r="M116" s="289"/>
+      <c r="N116" s="289"/>
       <c r="O116" s="273"/>
     </row>
-    <row r="117" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B117" s="272"/>
-      <c r="C117" s="286" t="s">
-        <v>172</v>
-      </c>
-      <c r="D117" s="287">
-        <v>115.51308349549276</v>
-      </c>
-      <c r="E117" s="287">
-        <v>268.63507789649481</v>
-      </c>
-      <c r="F117" s="287">
-        <v>128.3478705505475</v>
-      </c>
-      <c r="G117" s="287">
-        <v>140.28720734594731</v>
-      </c>
-      <c r="H117" s="287">
-        <v>126.25848661135255</v>
-      </c>
-      <c r="I117" s="287">
-        <v>0</v>
-      </c>
-      <c r="J117" s="287">
-        <v>126.25848661135255</v>
-      </c>
-      <c r="K117" s="264"/>
-      <c r="L117" s="288">
-        <v>820</v>
-      </c>
-      <c r="M117" s="289">
-        <v>39.130448338581566</v>
-      </c>
-      <c r="N117" s="289">
-        <v>42.770490044496121</v>
-      </c>
-      <c r="O117" s="273"/>
-    </row>
-    <row r="118" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B118" s="272"/>
-      <c r="C118" s="286" t="s">
-        <v>173</v>
-      </c>
-      <c r="D118" s="287">
-        <v>13214.950487295446</v>
-      </c>
-      <c r="E118" s="287">
-        <v>30519.51613694098</v>
-      </c>
-      <c r="F118" s="287">
-        <v>21394.930112166592</v>
-      </c>
-      <c r="G118" s="287">
-        <v>9124.5860247743894</v>
-      </c>
-      <c r="H118" s="287">
-        <v>9308.4524217669987</v>
-      </c>
-      <c r="I118" s="287">
-        <v>2574.5079354834993</v>
-      </c>
-      <c r="J118" s="287">
-        <v>6733.9444862834998</v>
-      </c>
+    <row r="117" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B117" s="307"/>
+      <c r="C117" s="308"/>
+      <c r="D117" s="309"/>
+      <c r="E117" s="309"/>
+      <c r="F117" s="309"/>
+      <c r="G117" s="309"/>
+      <c r="H117" s="309"/>
+      <c r="I117" s="309"/>
+      <c r="J117" s="309"/>
+      <c r="K117" s="310"/>
+      <c r="L117" s="311"/>
+      <c r="M117" s="312"/>
+      <c r="N117" s="312"/>
+      <c r="O117" s="313"/>
+    </row>
+    <row r="118" spans="2:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B118" s="282" t="s">
+        <v>175</v>
+      </c>
+      <c r="C118" s="314"/>
+      <c r="D118" s="301"/>
+      <c r="E118" s="301"/>
+      <c r="F118" s="301"/>
+      <c r="G118" s="301"/>
+      <c r="H118" s="301"/>
+      <c r="I118" s="301"/>
+      <c r="J118" s="301"/>
       <c r="K118" s="264"/>
-      <c r="L118" s="288">
-        <v>1925</v>
-      </c>
-      <c r="M118" s="289">
-        <v>1906.9192622359949</v>
-      </c>
-      <c r="N118" s="289">
-        <v>1343.2110276720055</v>
-      </c>
+      <c r="L118" s="288"/>
+      <c r="M118" s="289"/>
+      <c r="N118" s="289"/>
       <c r="O118" s="273"/>
     </row>
     <row r="119" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B119" s="272"/>
       <c r="C119" s="286" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D119" s="287">
-        <v>10.325224886513979</v>
+        <v>7291</v>
       </c>
       <c r="E119" s="287">
-        <v>25.813062216284948</v>
+        <v>27005</v>
       </c>
       <c r="F119" s="287">
-        <v>18.773136157298143</v>
+        <v>22631</v>
       </c>
       <c r="G119" s="287">
-        <v>7.0399260589868033</v>
+        <v>4374</v>
       </c>
       <c r="H119" s="287">
-        <v>3.8719593324427422</v>
+        <v>9452</v>
       </c>
       <c r="I119" s="287">
-        <v>0</v>
+        <v>6740</v>
       </c>
       <c r="J119" s="287">
-        <v>3.8719593324427422</v>
+        <v>2712</v>
       </c>
       <c r="K119" s="264"/>
       <c r="L119" s="288">
-        <v>6000</v>
+        <v>2560</v>
       </c>
       <c r="M119" s="289">
-        <v>0.47801967067194345</v>
+        <v>791</v>
       </c>
       <c r="N119" s="289">
-        <v>0.17925737650197882</v>
+        <v>1026</v>
       </c>
       <c r="O119" s="273"/>
     </row>
-    <row r="120" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B120" s="272"/>
       <c r="C120" s="286" t="s">
-        <v>166</v>
-      </c>
-      <c r="D120" s="290">
-        <v>21263.987088894155</v>
-      </c>
-      <c r="E120" s="290">
-        <v>62826.886673888926</v>
-      </c>
-      <c r="F120" s="290">
-        <v>47107.742331837391</v>
-      </c>
-      <c r="G120" s="290">
-        <v>15719.144342051535</v>
-      </c>
-      <c r="H120" s="290">
-        <v>20643.105706603099</v>
-      </c>
-      <c r="I120" s="290">
-        <v>9926.8101420121602</v>
-      </c>
-      <c r="J120" s="290">
-        <v>10716.295564590939</v>
-      </c>
-      <c r="K120" s="291"/>
-      <c r="L120" s="292"/>
-      <c r="M120" s="293">
-        <v>2736.7928702030281</v>
-      </c>
-      <c r="N120" s="293">
-        <v>2503.7074376595615</v>
+        <v>172</v>
+      </c>
+      <c r="D120" s="287">
+        <v>89</v>
+      </c>
+      <c r="E120" s="287">
+        <v>206</v>
+      </c>
+      <c r="F120" s="287">
+        <v>99</v>
+      </c>
+      <c r="G120" s="287">
+        <v>108</v>
+      </c>
+      <c r="H120" s="287">
+        <v>97</v>
+      </c>
+      <c r="I120" s="287">
+        <v>0</v>
+      </c>
+      <c r="J120" s="287">
+        <v>97</v>
+      </c>
+      <c r="K120" s="264"/>
+      <c r="L120" s="288">
+        <v>620</v>
+      </c>
+      <c r="M120" s="289">
+        <v>40</v>
+      </c>
+      <c r="N120" s="289">
+        <v>43</v>
       </c>
       <c r="O120" s="273"/>
     </row>
-    <row r="121" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B121" s="294"/>
-      <c r="C121" s="295"/>
-      <c r="D121" s="296"/>
-      <c r="E121" s="296"/>
-      <c r="F121" s="296"/>
-      <c r="G121" s="296"/>
-      <c r="H121" s="296"/>
-      <c r="I121" s="296"/>
-      <c r="J121" s="296"/>
-      <c r="K121" s="297"/>
-      <c r="L121" s="298"/>
-      <c r="M121" s="299"/>
-      <c r="N121" s="299"/>
-      <c r="O121" s="300"/>
+    <row r="121" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B121" s="272"/>
+      <c r="C121" s="286" t="s">
+        <v>173</v>
+      </c>
+      <c r="D121" s="287">
+        <v>10993</v>
+      </c>
+      <c r="E121" s="287">
+        <v>25387</v>
+      </c>
+      <c r="F121" s="287">
+        <v>18365</v>
+      </c>
+      <c r="G121" s="287">
+        <v>7023</v>
+      </c>
+      <c r="H121" s="287">
+        <v>7743</v>
+      </c>
+      <c r="I121" s="287">
+        <v>2560</v>
+      </c>
+      <c r="J121" s="287">
+        <v>5183</v>
+      </c>
+      <c r="K121" s="264"/>
+      <c r="L121" s="288">
+        <v>1750</v>
+      </c>
+      <c r="M121" s="289">
+        <v>1745</v>
+      </c>
+      <c r="N121" s="289">
+        <v>1229</v>
+      </c>
+      <c r="O121" s="273"/>
     </row>
     <row r="122" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B122" s="282" t="s">
-        <v>176</v>
-      </c>
-      <c r="C122" s="283"/>
-      <c r="D122" s="301"/>
-      <c r="E122" s="301"/>
-      <c r="F122" s="301"/>
-      <c r="G122" s="301"/>
-      <c r="H122" s="301"/>
-      <c r="I122" s="301"/>
-      <c r="J122" s="301"/>
+      <c r="B122" s="272"/>
+      <c r="C122" s="286" t="s">
+        <v>422</v>
+      </c>
+      <c r="D122" s="287">
+        <v>3084</v>
+      </c>
+      <c r="E122" s="287">
+        <v>8328</v>
+      </c>
+      <c r="F122" s="287">
+        <v>8328</v>
+      </c>
+      <c r="G122" s="287">
+        <v>0</v>
+      </c>
+      <c r="H122" s="287">
+        <v>216</v>
+      </c>
+      <c r="I122" s="287">
+        <v>216</v>
+      </c>
+      <c r="J122" s="287">
+        <v>0</v>
+      </c>
       <c r="K122" s="264"/>
-      <c r="L122" s="288"/>
-      <c r="M122" s="289"/>
-      <c r="N122" s="289"/>
+      <c r="L122" s="288">
+        <v>5320</v>
+      </c>
+      <c r="M122" s="289">
+        <v>161</v>
+      </c>
+      <c r="N122" s="289">
+        <v>11</v>
+      </c>
       <c r="O122" s="273"/>
     </row>
     <row r="123" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B123" s="272"/>
       <c r="C123" s="286" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D123" s="287">
-        <v>63541.891295999994</v>
+        <v>12</v>
       </c>
       <c r="E123" s="287">
-        <v>146748.0168498845</v>
+        <v>31</v>
       </c>
       <c r="F123" s="287">
-        <v>146748.0168498845</v>
+        <v>23</v>
       </c>
       <c r="G123" s="287">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H123" s="287">
-        <v>44758.145139214772</v>
+        <v>5</v>
       </c>
       <c r="I123" s="287">
-        <v>44758.145139214772</v>
+        <v>0</v>
       </c>
       <c r="J123" s="287">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K123" s="264"/>
       <c r="L123" s="288">
-        <v>4975</v>
+        <v>6000</v>
       </c>
       <c r="M123" s="289">
-        <v>3547.8442934673367</v>
+        <v>1</v>
       </c>
       <c r="N123" s="289">
-        <v>2499.0589134123265</v>
+        <v>0</v>
       </c>
       <c r="O123" s="273"/>
     </row>
-    <row r="124" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B124" s="272"/>
       <c r="C124" s="286" t="s">
-        <v>170</v>
-      </c>
-      <c r="D124" s="287">
-        <v>2318.8173119999992</v>
-      </c>
-      <c r="E124" s="287">
-        <v>5392.598399999998</v>
-      </c>
-      <c r="F124" s="287">
-        <v>5392.598399999998</v>
-      </c>
-      <c r="G124" s="287">
-        <v>0</v>
-      </c>
-      <c r="H124" s="287">
-        <v>754.96377599999983</v>
-      </c>
-      <c r="I124" s="287">
-        <v>754.96377599999983</v>
-      </c>
-      <c r="J124" s="287">
-        <v>0</v>
-      </c>
-      <c r="K124" s="264"/>
-      <c r="L124" s="288">
-        <v>6200</v>
-      </c>
-      <c r="M124" s="289">
-        <v>103.88966451612899</v>
-      </c>
-      <c r="N124" s="289">
-        <v>33.824541935483865</v>
+        <v>166</v>
+      </c>
+      <c r="D124" s="290">
+        <v>21469</v>
+      </c>
+      <c r="E124" s="290">
+        <v>60958</v>
+      </c>
+      <c r="F124" s="290">
+        <v>49445</v>
+      </c>
+      <c r="G124" s="290">
+        <v>11513</v>
+      </c>
+      <c r="H124" s="290">
+        <v>17512</v>
+      </c>
+      <c r="I124" s="290">
+        <v>9516</v>
+      </c>
+      <c r="J124" s="290">
+        <v>7997</v>
+      </c>
+      <c r="K124" s="291"/>
+      <c r="L124" s="292"/>
+      <c r="M124" s="293">
+        <v>2737</v>
+      </c>
+      <c r="N124" s="293">
+        <v>2310</v>
       </c>
       <c r="O124" s="273"/>
     </row>
-    <row r="125" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B125" s="272"/>
-      <c r="C125" s="286" t="s">
-        <v>177</v>
-      </c>
-      <c r="D125" s="287">
-        <v>0</v>
-      </c>
-      <c r="E125" s="287">
-        <v>0</v>
-      </c>
-      <c r="F125" s="287">
-        <v>0</v>
-      </c>
-      <c r="G125" s="287">
-        <v>0</v>
-      </c>
-      <c r="H125" s="287">
-        <v>0</v>
-      </c>
-      <c r="I125" s="287">
-        <v>0</v>
-      </c>
-      <c r="J125" s="287">
-        <v>0</v>
-      </c>
-      <c r="K125" s="264"/>
-      <c r="L125" s="288">
-        <v>4500</v>
-      </c>
-      <c r="M125" s="289">
-        <v>0</v>
-      </c>
-      <c r="N125" s="289">
-        <v>0</v>
-      </c>
-      <c r="O125" s="273"/>
+    <row r="125" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="294"/>
+      <c r="C125" s="295"/>
+      <c r="D125" s="296"/>
+      <c r="E125" s="296"/>
+      <c r="F125" s="296"/>
+      <c r="G125" s="296"/>
+      <c r="H125" s="296"/>
+      <c r="I125" s="296"/>
+      <c r="J125" s="296"/>
+      <c r="K125" s="297"/>
+      <c r="L125" s="298"/>
+      <c r="M125" s="299"/>
+      <c r="N125" s="299"/>
+      <c r="O125" s="300"/>
     </row>
     <row r="126" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B126" s="272"/>
-      <c r="C126" s="286" t="s">
-        <v>178</v>
-      </c>
-      <c r="D126" s="287">
-        <v>11057.171328</v>
-      </c>
-      <c r="E126" s="287">
-        <v>27642.928319999999</v>
-      </c>
-      <c r="F126" s="287">
-        <v>27642.928319999999</v>
-      </c>
-      <c r="G126" s="287">
-        <v>0</v>
-      </c>
-      <c r="H126" s="287">
-        <v>4146.4392479999997</v>
-      </c>
-      <c r="I126" s="287">
-        <v>4146.4392479999997</v>
-      </c>
-      <c r="J126" s="287">
-        <v>0</v>
-      </c>
+      <c r="B126" s="282" t="s">
+        <v>176</v>
+      </c>
+      <c r="C126" s="283"/>
+      <c r="D126" s="301"/>
+      <c r="E126" s="301"/>
+      <c r="F126" s="301"/>
+      <c r="G126" s="301"/>
+      <c r="H126" s="301"/>
+      <c r="I126" s="301"/>
+      <c r="J126" s="301"/>
       <c r="K126" s="264"/>
-      <c r="L126" s="288">
-        <v>6200</v>
-      </c>
-      <c r="M126" s="289">
-        <v>495.39298064516123</v>
-      </c>
-      <c r="N126" s="289">
-        <v>185.77236774193548</v>
-      </c>
+      <c r="L126" s="288"/>
+      <c r="M126" s="289"/>
+      <c r="N126" s="289"/>
       <c r="O126" s="273"/>
     </row>
-    <row r="127" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B127" s="272"/>
       <c r="C127" s="286" t="s">
-        <v>166</v>
-      </c>
-      <c r="D127" s="290">
-        <v>76917.879935999983</v>
-      </c>
-      <c r="E127" s="315">
-        <v>179783.5435698845</v>
-      </c>
-      <c r="F127" s="290">
-        <v>179783.5435698845</v>
-      </c>
-      <c r="G127" s="290">
-        <v>0</v>
-      </c>
-      <c r="H127" s="290">
-        <v>49659.548163214771</v>
-      </c>
-      <c r="I127" s="290">
-        <v>49659.548163214771</v>
-      </c>
-      <c r="J127" s="290">
-        <v>0</v>
-      </c>
-      <c r="K127" s="291"/>
-      <c r="L127" s="292"/>
-      <c r="M127" s="293">
-        <v>4147.1269386286267</v>
-      </c>
-      <c r="N127" s="293">
-        <v>2718.6558230897458</v>
+        <v>173</v>
+      </c>
+      <c r="D127" s="287">
+        <v>63542</v>
+      </c>
+      <c r="E127" s="287">
+        <v>146748</v>
+      </c>
+      <c r="F127" s="287">
+        <v>146748</v>
+      </c>
+      <c r="G127" s="287">
+        <v>0</v>
+      </c>
+      <c r="H127" s="287">
+        <v>44758</v>
+      </c>
+      <c r="I127" s="287">
+        <v>44758</v>
+      </c>
+      <c r="J127" s="287">
+        <v>0</v>
+      </c>
+      <c r="K127" s="264"/>
+      <c r="L127" s="288">
+        <v>4975</v>
+      </c>
+      <c r="M127" s="289">
+        <v>3548</v>
+      </c>
+      <c r="N127" s="289">
+        <v>2499</v>
       </c>
       <c r="O127" s="273"/>
     </row>
-    <row r="128" spans="2:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="302"/>
-      <c r="C128" s="303"/>
-      <c r="D128" s="304"/>
-      <c r="E128" s="304"/>
-      <c r="F128" s="304"/>
-      <c r="G128" s="304"/>
-      <c r="H128" s="304"/>
-      <c r="I128" s="304"/>
-      <c r="J128" s="304"/>
-      <c r="K128" s="278"/>
-      <c r="L128" s="305"/>
-      <c r="M128" s="316"/>
-      <c r="N128" s="316"/>
-      <c r="O128" s="281"/>
+    <row r="128" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B128" s="272"/>
+      <c r="C128" s="286" t="s">
+        <v>170</v>
+      </c>
+      <c r="D128" s="287">
+        <v>2319</v>
+      </c>
+      <c r="E128" s="287">
+        <v>5270</v>
+      </c>
+      <c r="F128" s="287">
+        <v>5270</v>
+      </c>
+      <c r="G128" s="287">
+        <v>0</v>
+      </c>
+      <c r="H128" s="287">
+        <v>685</v>
+      </c>
+      <c r="I128" s="287">
+        <v>685</v>
+      </c>
+      <c r="J128" s="287">
+        <v>0</v>
+      </c>
+      <c r="K128" s="264"/>
+      <c r="L128" s="288">
+        <v>6200</v>
+      </c>
+      <c r="M128" s="289">
+        <v>104</v>
+      </c>
+      <c r="N128" s="289">
+        <v>31</v>
+      </c>
+      <c r="O128" s="273"/>
     </row>
     <row r="129" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B129" s="282" t="s">
-        <v>179</v>
-      </c>
-      <c r="C129" s="283"/>
-      <c r="D129" s="301"/>
-      <c r="E129" s="301"/>
-      <c r="F129" s="301"/>
-      <c r="G129" s="301"/>
-      <c r="H129" s="301"/>
-      <c r="I129" s="301"/>
-      <c r="J129" s="301"/>
+      <c r="B129" s="272"/>
+      <c r="C129" s="286" t="s">
+        <v>177</v>
+      </c>
+      <c r="D129" s="287">
+        <v>0</v>
+      </c>
+      <c r="E129" s="287">
+        <v>0</v>
+      </c>
+      <c r="F129" s="287">
+        <v>0</v>
+      </c>
+      <c r="G129" s="287">
+        <v>0</v>
+      </c>
+      <c r="H129" s="287">
+        <v>0</v>
+      </c>
+      <c r="I129" s="287">
+        <v>0</v>
+      </c>
+      <c r="J129" s="287">
+        <v>0</v>
+      </c>
       <c r="K129" s="264"/>
-      <c r="L129" s="288"/>
-      <c r="M129" s="317"/>
-      <c r="N129" s="317"/>
+      <c r="L129" s="288">
+        <v>4500</v>
+      </c>
+      <c r="M129" s="289">
+        <v>0</v>
+      </c>
+      <c r="N129" s="289">
+        <v>0</v>
+      </c>
       <c r="O129" s="273"/>
     </row>
     <row r="130" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B130" s="272"/>
       <c r="C130" s="286" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D130" s="287">
-        <v>14139.032940000001</v>
+        <v>11057</v>
       </c>
       <c r="E130" s="287">
-        <v>69139.525378973107</v>
+        <v>27643</v>
       </c>
       <c r="F130" s="287">
-        <v>69139.525378973107</v>
+        <v>27643</v>
       </c>
       <c r="G130" s="287">
         <v>0</v>
       </c>
       <c r="H130" s="287">
-        <v>13793.335313105135</v>
+        <v>4146</v>
       </c>
       <c r="I130" s="287">
-        <v>13793.335313105135</v>
+        <v>4146</v>
       </c>
       <c r="J130" s="287">
         <v>0</v>
       </c>
       <c r="K130" s="264"/>
       <c r="L130" s="288">
+        <v>6200</v>
+      </c>
+      <c r="M130" s="289">
+        <v>495</v>
+      </c>
+      <c r="N130" s="289">
+        <v>186</v>
+      </c>
+      <c r="O130" s="273"/>
+    </row>
+    <row r="131" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B131" s="272"/>
+      <c r="C131" s="286" t="s">
+        <v>166</v>
+      </c>
+      <c r="D131" s="290">
+        <v>76918</v>
+      </c>
+      <c r="E131" s="315">
+        <v>179661</v>
+      </c>
+      <c r="F131" s="290">
+        <v>179661</v>
+      </c>
+      <c r="G131" s="290">
+        <v>0</v>
+      </c>
+      <c r="H131" s="290">
+        <v>49590</v>
+      </c>
+      <c r="I131" s="290">
+        <v>49590</v>
+      </c>
+      <c r="J131" s="290">
+        <v>0</v>
+      </c>
+      <c r="K131" s="291"/>
+      <c r="L131" s="292"/>
+      <c r="M131" s="293">
+        <v>4147</v>
+      </c>
+      <c r="N131" s="293">
+        <v>2716</v>
+      </c>
+      <c r="O131" s="273"/>
+    </row>
+    <row r="132" spans="2:15" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="302"/>
+      <c r="C132" s="303"/>
+      <c r="D132" s="304"/>
+      <c r="E132" s="304"/>
+      <c r="F132" s="304"/>
+      <c r="G132" s="304"/>
+      <c r="H132" s="304"/>
+      <c r="I132" s="304"/>
+      <c r="J132" s="304"/>
+      <c r="K132" s="278"/>
+      <c r="L132" s="305"/>
+      <c r="M132" s="316"/>
+      <c r="N132" s="316"/>
+      <c r="O132" s="281"/>
+    </row>
+    <row r="133" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B133" s="282" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" s="283"/>
+      <c r="D133" s="301"/>
+      <c r="E133" s="301"/>
+      <c r="F133" s="301"/>
+      <c r="G133" s="301"/>
+      <c r="H133" s="301"/>
+      <c r="I133" s="301"/>
+      <c r="J133" s="301"/>
+      <c r="K133" s="264"/>
+      <c r="L133" s="288"/>
+      <c r="M133" s="317"/>
+      <c r="N133" s="317"/>
+      <c r="O133" s="273"/>
+    </row>
+    <row r="134" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B134" s="272"/>
+      <c r="C134" s="286" t="s">
+        <v>180</v>
+      </c>
+      <c r="D134" s="287">
+        <v>14139</v>
+      </c>
+      <c r="E134" s="287">
+        <v>69140</v>
+      </c>
+      <c r="F134" s="287">
+        <v>69140</v>
+      </c>
+      <c r="G134" s="287">
+        <v>0</v>
+      </c>
+      <c r="H134" s="287">
+        <v>13793</v>
+      </c>
+      <c r="I134" s="287">
+        <v>13793</v>
+      </c>
+      <c r="J134" s="287">
+        <v>0</v>
+      </c>
+      <c r="K134" s="264"/>
+      <c r="L134" s="288">
         <v>4390</v>
       </c>
-      <c r="M130" s="289">
-        <v>894.64900911161737</v>
-      </c>
-      <c r="N130" s="289">
-        <v>872.77495020913273</v>
-      </c>
-      <c r="O130" s="273"/>
-    </row>
-    <row r="131" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B131" s="294"/>
-      <c r="C131" s="318"/>
-      <c r="D131" s="298"/>
-      <c r="E131" s="318"/>
-      <c r="F131" s="318"/>
-      <c r="G131" s="318"/>
-      <c r="H131" s="318"/>
-      <c r="I131" s="318"/>
-      <c r="J131" s="318"/>
-      <c r="K131" s="297"/>
-      <c r="L131" s="298"/>
-      <c r="M131" s="318"/>
-      <c r="N131" s="318"/>
-      <c r="O131" s="300"/>
+      <c r="M134" s="289">
+        <v>895</v>
+      </c>
+      <c r="N134" s="289">
+        <v>873</v>
+      </c>
+      <c r="O134" s="273"/>
+    </row>
+    <row r="135" spans="2:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B135" s="294"/>
+      <c r="C135" s="318"/>
+      <c r="D135" s="298"/>
+      <c r="E135" s="318"/>
+      <c r="F135" s="318"/>
+      <c r="G135" s="318"/>
+      <c r="H135" s="318"/>
+      <c r="I135" s="318"/>
+      <c r="J135" s="318"/>
+      <c r="K135" s="297"/>
+      <c r="L135" s="298"/>
+      <c r="M135" s="318"/>
+      <c r="N135" s="318"/>
+      <c r="O135" s="300"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -47413,7 +47539,7 @@
     <mergeCell ref="M8:M9"/>
     <mergeCell ref="N8:N9"/>
     <mergeCell ref="O8:O9"/>
-    <mergeCell ref="B90:E90"/>
+    <mergeCell ref="B92:E92"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
